--- a/note/笔记本.xlsx
+++ b/note/笔记本.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\download\note\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\react\dva\note\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20AE73E-B692-465C-A659-B27204CD4B5E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="5685" windowWidth="27150" windowHeight="9930"/>
+    <workbookView xWindow="-30" yWindow="5175" windowWidth="27600" windowHeight="9555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,17 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="155">
   <si>
     <t>品牌</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -390,10 +386,6 @@
     <t>宏碁</t>
   </si>
   <si>
-    <t>暗影骑士4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>i5-9300H</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -403,10 +395,6 @@
   </si>
   <si>
     <t>20*360*256</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关充</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -586,11 +574,115 @@
     <t>模具</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>联想</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>y7000-2019</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24*360*267</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.7mm 15.6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72% ips  DC 300nit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>180度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aspire7-商务-A715</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双M.2  raid0，关机充电，指纹识别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21*353*254</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗影骑士4-AN715</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>37/48</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>135w</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关充</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色、白色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G7M-CT7NA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同方GK5S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝天NH70</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同方GK5CN5X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GX&amp;-CT5DS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>94% ips （雾面？）122</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6300?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72% ips （雾面？）144</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耀7000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>85% ips 雾面？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20*360*244</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -749,7 +841,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -810,6 +902,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1126,13 +1221,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T115"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1144,7 +1239,7 @@
     <col min="5" max="5" width="5.375" customWidth="1"/>
     <col min="6" max="6" width="19.625" customWidth="1"/>
     <col min="7" max="7" width="8.875" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
     <col min="9" max="9" width="6.125" customWidth="1"/>
     <col min="10" max="10" width="15.125" customWidth="1"/>
     <col min="11" max="11" width="10.75" customWidth="1"/>
@@ -1196,7 +1291,7 @@
         <v>34</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>30</v>
@@ -1214,7 +1309,7 @@
         <v>32</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="T1" s="17" t="s">
         <v>15</v>
@@ -1271,7 +1366,7 @@
         <v>48</v>
       </c>
       <c r="C3" s="2">
-        <v>6299</v>
+        <v>6099</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>49</v>
@@ -1304,68 +1399,60 @@
       <c r="T3" s="9"/>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4599</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="2">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="2">
+        <v>15.6</v>
+      </c>
       <c r="K4" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="P4" s="2">
         <v>41</v>
       </c>
       <c r="Q4" s="3"/>
-      <c r="R4" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2">
-        <v>5979</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="K5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>0.96</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="Q5" s="3"/>
       <c r="R5" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>5979</v>
@@ -1377,13 +1464,13 @@
         <v>8</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>45</v>
@@ -1400,16 +1487,21 @@
       <c r="N6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q6" s="3"/>
+      <c r="Q6" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2">
-        <v>5379</v>
+        <v>5979</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>19</v>
@@ -1421,7 +1513,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>57</v>
@@ -1436,32 +1528,30 @@
         <v>42</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q7" s="3">
-        <v>0.94</v>
-      </c>
+      <c r="Q7" s="3"/>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
     </row>
     <row r="8" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2">
-        <v>4979</v>
+        <v>5379</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2">
         <v>8</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>55</v>
@@ -1479,42 +1569,38 @@
         <v>42</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="2" t="s">
-        <v>71</v>
+      <c r="Q8" s="3">
+        <v>0.94</v>
       </c>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
     </row>
-    <row r="9" spans="1:20" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C9" s="2">
-        <v>6189</v>
+        <v>4979</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="E9" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>45</v>
@@ -1523,41 +1609,116 @@
         <v>33</v>
       </c>
       <c r="K9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+    </row>
+    <row r="10" spans="1:20" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5999</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="2">
+        <v>16</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N9" s="2">
+      <c r="M10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="N10" s="2">
         <v>2</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q10" s="3">
         <v>43618</v>
       </c>
-      <c r="S9" s="9" t="s">
+      <c r="S10" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="T9" s="9"/>
-    </row>
-    <row r="10" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="Q10" s="3"/>
-      <c r="S10" s="9"/>
       <c r="T10" s="9"/>
     </row>
     <row r="11" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6199</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="2">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="Q11" s="3"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
     </row>
     <row r="12" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="C12" s="2">
-        <v>6979</v>
+        <v>6799</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>49</v>
@@ -1572,459 +1733,425 @@
         <v>50</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K12" s="2">
-        <v>25</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N12" s="2">
-        <v>3.4</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P12" s="2">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="Q12" s="3"/>
-      <c r="R12" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
     </row>
     <row r="13" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="2">
-        <v>5679</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="2">
-        <v>8</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="N13" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>43588</v>
-      </c>
+      <c r="Q13" s="3"/>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
     </row>
     <row r="14" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="C14" s="2">
-        <v>6300</v>
+        <v>6779</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="2">
+        <v>16</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="2">
+        <v>25</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N14" s="2">
+        <v>3.4</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="P14" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="Q14" s="3"/>
-      <c r="S14" s="9" t="s">
-        <v>123</v>
-      </c>
+      <c r="R14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S14" s="9"/>
       <c r="T14" s="9"/>
     </row>
     <row r="15" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="Q15" s="3"/>
+      <c r="B15" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5679</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="2">
+        <v>8</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="N15" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>43588</v>
+      </c>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
     </row>
     <row r="16" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="2">
-        <v>7299</v>
+        <v>22</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="E16" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="N16" s="2">
-        <v>2</v>
+        <v>151</v>
+      </c>
+      <c r="J16" s="2">
+        <v>17.3</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="P16" s="2">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q16" s="3"/>
       <c r="S16" s="9" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="T16" s="9"/>
     </row>
     <row r="17" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C17" s="2">
+        <v>7699</v>
+      </c>
       <c r="Q17" s="3"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
     </row>
     <row r="18" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>26</v>
+        <v>124</v>
+      </c>
+      <c r="C18" s="2">
+        <v>7299</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="2">
+        <v>16</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N18" s="2">
+        <v>2</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P18" s="2">
+        <v>46</v>
       </c>
       <c r="Q18" s="3"/>
-      <c r="S18" s="9"/>
+      <c r="S18" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="T18" s="9"/>
     </row>
     <row r="19" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="Q19" s="3"/>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
     </row>
     <row r="20" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="Q20" s="3"/>
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
     </row>
-    <row r="21" spans="1:20" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C21" s="2">
-        <v>6059</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="2">
-        <v>8</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>21</v>
+    <row r="21" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N21" s="2">
-        <v>1.82</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="P21" s="2">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="Q21" s="3"/>
-      <c r="R21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S21" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="T21" s="5" t="s">
-        <v>102</v>
-      </c>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
     </row>
     <row r="22" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q22" s="3"/>
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
     </row>
-    <row r="23" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="2">
+        <v>6059</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="2">
+        <v>8</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N23" s="2">
+        <v>1.82</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P23" s="2">
+        <v>46</v>
+      </c>
       <c r="Q23" s="3"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-    </row>
-    <row r="24" spans="1:20" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="R23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+    </row>
+    <row r="25" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+    </row>
+    <row r="26" spans="1:20" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B26" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="2">
+        <v>5525</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="2">
-        <v>5525</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="E26" s="2">
         <v>8</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="N24" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="P24" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>43588</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="S24" s="9"/>
-      <c r="T24" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" s="2">
-        <v>6499</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="2">
-        <v>8</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q25" s="3"/>
-      <c r="S25" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="T25" s="9"/>
-    </row>
-    <row r="26" spans="1:20" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C26" s="2">
-        <v>5999</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="N26" s="2">
-        <v>2.2999999999999998</v>
+        <v>2.7</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="P26" s="2">
-        <v>52</v>
+        <v>141</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="Q26" s="3">
         <v>43588</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="S26" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="T26" s="19" t="s">
-        <v>121</v>
+        <v>142</v>
+      </c>
+      <c r="T26" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B27" s="10" t="s">
-        <v>108</v>
+      <c r="B27" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="C27" s="2">
-        <v>6699</v>
+        <v>6499</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
+      </c>
+      <c r="E27" s="2">
+        <v>8</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J27" s="2">
-        <v>17.3</v>
-      </c>
-      <c r="K27" s="2">
-        <v>25</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="N27" s="2">
-        <v>2.75</v>
+        <v>51</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="Q27" s="3"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9" t="s">
-        <v>109</v>
-      </c>
+      <c r="S27" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="T27" s="9"/>
     </row>
     <row r="28" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="C28" s="2">
-        <v>6699</v>
+        <v>5999</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="E28" s="2">
         <v>8</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>105</v>
+        <v>51</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K28" s="2">
-        <v>24</v>
+        <v>96</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="N28" s="2">
+        <v>2.35</v>
       </c>
       <c r="Q28" s="3"/>
-      <c r="S28" s="9"/>
+      <c r="S28" s="9" t="s">
+        <v>137</v>
+      </c>
       <c r="T28" s="9"/>
     </row>
     <row r="29" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="Q29" s="3"/>
       <c r="S29" s="9"/>
       <c r="T29" s="9"/>
@@ -2034,92 +2161,247 @@
       <c r="S30" s="9"/>
       <c r="T30" s="9"/>
     </row>
-    <row r="31" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="Q31" s="3"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-    </row>
-    <row r="32" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="2">
+        <v>5999</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N31" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="P31" s="2">
+        <v>52</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>43588</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="S31" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="T31" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="14"/>
+      <c r="B32" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="2">
+        <v>6099</v>
+      </c>
       <c r="Q32" s="3"/>
       <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-    </row>
-    <row r="33" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="T32" s="19"/>
+    </row>
+    <row r="33" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B33" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="2">
+        <v>6699</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J33" s="2">
+        <v>17.3</v>
+      </c>
+      <c r="K33" s="2">
+        <v>25</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N33" s="2">
+        <v>2.75</v>
+      </c>
       <c r="Q33" s="3"/>
       <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-    </row>
-    <row r="34" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="T33" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C34" s="2">
+        <v>6699</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="2">
+        <v>8</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K34" s="2">
+        <v>24</v>
+      </c>
       <c r="Q34" s="3"/>
       <c r="S34" s="9"/>
       <c r="T34" s="9"/>
     </row>
-    <row r="35" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="Q35" s="3"/>
       <c r="S35" s="9"/>
       <c r="T35" s="9"/>
     </row>
-    <row r="36" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q36" s="3"/>
       <c r="S36" s="9"/>
       <c r="T36" s="9"/>
     </row>
-    <row r="37" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="2">
+        <v>6299</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="2">
+        <v>8</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N37" s="2">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="Q37" s="3"/>
-      <c r="S37" s="9"/>
+      <c r="S37" s="9" t="s">
+        <v>134</v>
+      </c>
       <c r="T37" s="9"/>
     </row>
-    <row r="38" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q38" s="3"/>
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
     </row>
-    <row r="39" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q39" s="3"/>
       <c r="S39" s="9"/>
       <c r="T39" s="9"/>
     </row>
-    <row r="40" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q40" s="3"/>
       <c r="S40" s="9"/>
       <c r="T40" s="9"/>
     </row>
-    <row r="41" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q41" s="3"/>
       <c r="S41" s="9"/>
       <c r="T41" s="9"/>
     </row>
-    <row r="42" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q42" s="3"/>
       <c r="S42" s="9"/>
       <c r="T42" s="9"/>
     </row>
-    <row r="43" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q43" s="3"/>
       <c r="S43" s="9"/>
       <c r="T43" s="9"/>
     </row>
-    <row r="44" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q44" s="3"/>
       <c r="S44" s="9"/>
       <c r="T44" s="9"/>
     </row>
-    <row r="45" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q45" s="3"/>
       <c r="S45" s="9"/>
       <c r="T45" s="9"/>
     </row>
-    <row r="46" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q46" s="3"/>
       <c r="S46" s="9"/>
       <c r="T46" s="9"/>
     </row>
-    <row r="47" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q47" s="3"/>
       <c r="S47" s="9"/>
       <c r="T47" s="9"/>
     </row>
-    <row r="48" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q48" s="3"/>
       <c r="S48" s="9"/>
       <c r="T48" s="9"/>
@@ -2459,12 +2741,42 @@
       <c r="S115" s="9"/>
       <c r="T115" s="9"/>
     </row>
+    <row r="116" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q116" s="3"/>
+      <c r="S116" s="9"/>
+      <c r="T116" s="9"/>
+    </row>
+    <row r="117" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q117" s="3"/>
+      <c r="S117" s="9"/>
+      <c r="T117" s="9"/>
+    </row>
+    <row r="118" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q118" s="3"/>
+      <c r="S118" s="9"/>
+      <c r="T118" s="9"/>
+    </row>
+    <row r="119" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q119" s="3"/>
+      <c r="S119" s="9"/>
+      <c r="T119" s="9"/>
+    </row>
+    <row r="120" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q120" s="3"/>
+      <c r="S120" s="9"/>
+      <c r="T120" s="9"/>
+    </row>
+    <row r="121" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q121" s="3"/>
+      <c r="S121" s="9"/>
+      <c r="T121" s="9"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1"/>
-    <hyperlink ref="T21" r:id="rId2"/>
-    <hyperlink ref="T26" r:id="rId3"/>
+    <hyperlink ref="T2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="T23" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="T31" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/note/笔记本.xlsx
+++ b/note/笔记本.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\react\dva\note\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp\www\react\e6-nolive\dva\note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20AE73E-B692-465C-A659-B27204CD4B5E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="5175" windowWidth="27600" windowHeight="9555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30" yWindow="5175" windowWidth="27600" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="159">
   <si>
     <t>品牌</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -114,10 +113,6 @@
   </si>
   <si>
     <t>G7-CT7NA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>120w 小</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -651,10 +646,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>GX&amp;-CT5DS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>94% ips （雾面？）122</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -676,13 +667,37 @@
   </si>
   <si>
     <t>20*360*244</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>150w 小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GX7-CT5DS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4铜 3出风 2风扇 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>150w 小</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -804,12 +819,30 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -841,7 +874,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -904,6 +937,36 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1221,13 +1284,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1279,22 +1342,22 @@
         <v>14</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>4</v>
@@ -1303,13 +1366,13 @@
         <v>5</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T1" s="17" t="s">
         <v>15</v>
@@ -1332,25 +1395,25 @@
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="N2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P2" s="2">
         <v>43</v>
@@ -1363,13 +1426,13 @@
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2">
         <v>6099</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2">
         <v>8</v>
@@ -1378,19 +1441,19 @@
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q3" s="3">
         <v>43647</v>
@@ -1400,13 +1463,13 @@
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C4" s="2">
         <v>4599</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2">
         <v>8</v>
@@ -1415,19 +1478,19 @@
         <v>13</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J4" s="2">
         <v>15.6</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P4" s="2">
         <v>41</v>
@@ -1438,11 +1501,11 @@
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="K5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
@@ -1464,41 +1527,41 @@
         <v>8</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="Q6" s="3">
         <v>0.96</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2">
         <v>5979</v>
@@ -1516,22 +1579,22 @@
         <v>20</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="S7" s="9"/>
@@ -1539,7 +1602,7 @@
     </row>
     <row r="8" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2">
         <v>5379</v>
@@ -1554,25 +1617,25 @@
         <v>13</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="N8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="3">
         <v>0.94</v>
@@ -1582,63 +1645,63 @@
     </row>
     <row r="9" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2">
         <v>4979</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" s="2">
         <v>8</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
     </row>
     <row r="10" spans="1:20" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="2">
         <v>5999</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E10" s="2">
         <v>16</v>
@@ -1650,94 +1713,106 @@
         <v>21</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N10" s="2">
         <v>2</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q10" s="3">
         <v>43618</v>
       </c>
       <c r="S10" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="T10" s="9"/>
+    </row>
+    <row r="11" spans="1:20" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="21">
+        <v>6199</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="21">
+        <v>8</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="T10" s="9"/>
-    </row>
-    <row r="11" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" s="2">
-        <v>6199</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="2">
-        <v>8</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="L11" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q11" s="22"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+    </row>
+    <row r="12" spans="1:20" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="27">
+        <v>6799</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="27">
+        <v>16</v>
+      </c>
+      <c r="F12" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q11" s="3"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-    </row>
-    <row r="12" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C12" s="2">
-        <v>6799</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="G12" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="2">
-        <v>16</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q12" s="3"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
+      <c r="H12" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="L12" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="N12" s="27">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="28"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
     </row>
     <row r="13" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q13" s="3"/>
@@ -1746,13 +1821,13 @@
     </row>
     <row r="14" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" s="2">
         <v>6779</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" s="2">
         <v>16</v>
@@ -1761,112 +1836,115 @@
         <v>13</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K14" s="2">
         <v>25</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N14" s="2">
         <v>3.4</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P14" s="2">
         <v>55</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
     </row>
-    <row r="15" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="10" t="s">
+    <row r="15" spans="1:20" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="21">
+        <v>5679</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="21">
+        <v>8</v>
+      </c>
+      <c r="F15" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="2">
-        <v>5679</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="G15" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="N15" s="21">
+        <v>2.7</v>
+      </c>
+      <c r="Q15" s="22">
+        <v>43588</v>
+      </c>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+    </row>
+    <row r="16" spans="1:20" s="24" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="24">
+        <v>8</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="2">
-        <v>8</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="N15" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>43588</v>
-      </c>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-    </row>
-    <row r="16" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="2">
-        <v>8</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="J16" s="2">
+      <c r="H16" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" s="24">
         <v>17.3</v>
       </c>
-      <c r="O16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P16" s="2">
+      <c r="O16" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="P16" s="24">
         <v>43</v>
       </c>
-      <c r="Q16" s="3"/>
-      <c r="S16" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="T16" s="9"/>
+      <c r="Q16" s="25"/>
+      <c r="S16" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="T16" s="26"/>
     </row>
     <row r="17" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C17" s="2">
@@ -1878,50 +1956,50 @@
     </row>
     <row r="18" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C18" s="2">
         <v>7299</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E18" s="2">
         <v>16</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N18" s="2">
         <v>2</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P18" s="2">
         <v>46</v>
       </c>
       <c r="Q18" s="3"/>
       <c r="S18" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T18" s="9"/>
     </row>
@@ -1932,10 +2010,10 @@
     </row>
     <row r="20" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q20" s="3"/>
       <c r="S20" s="9"/>
@@ -1943,10 +2021,10 @@
     </row>
     <row r="21" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q21" s="3"/>
       <c r="S21" s="9"/>
@@ -1959,16 +2037,16 @@
     </row>
     <row r="23" spans="1:20" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C23" s="2">
         <v>6059</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E23" s="2">
         <v>8</v>
@@ -1980,38 +2058,38 @@
         <v>21</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N23" s="2">
         <v>1.82</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P23" s="2">
         <v>46</v>
       </c>
       <c r="Q23" s="3"/>
       <c r="R23" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S23" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -2026,16 +2104,16 @@
     </row>
     <row r="26" spans="1:20" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C26" s="2">
         <v>5525</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E26" s="2">
         <v>8</v>
@@ -2047,48 +2125,48 @@
         <v>21</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N26" s="2">
         <v>2.7</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q26" s="3">
         <v>43588</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S26" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C27" s="2">
         <v>6499</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E27" s="2">
         <v>8</v>
@@ -2100,26 +2178,26 @@
         <v>21</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q27" s="3"/>
       <c r="S27" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T27" s="9"/>
     </row>
     <row r="28" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C28" s="2">
         <v>5999</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E28" s="2">
         <v>8</v>
@@ -2131,23 +2209,23 @@
         <v>21</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N28" s="2">
         <v>2.35</v>
       </c>
       <c r="Q28" s="3"/>
       <c r="S28" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T28" s="9"/>
     </row>
@@ -2163,43 +2241,43 @@
     </row>
     <row r="31" spans="1:20" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C31" s="2">
         <v>5999</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K31" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K31" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="L31" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N31" s="2">
         <v>2.2999999999999998</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P31" s="2">
         <v>52</v>
@@ -2208,19 +2286,19 @@
         <v>43588</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S31" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T31" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C32" s="2">
         <v>6099</v>
@@ -2231,25 +2309,25 @@
     </row>
     <row r="33" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C33" s="2">
         <v>6699</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J33" s="2">
         <v>17.3</v>
@@ -2258,7 +2336,7 @@
         <v>25</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N33" s="2">
         <v>2.75</v>
@@ -2266,7 +2344,7 @@
       <c r="Q33" s="3"/>
       <c r="S33" s="9"/>
       <c r="T33" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -2274,22 +2352,22 @@
         <v>6699</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E34" s="2">
         <v>8</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K34" s="2">
         <v>24</v>
@@ -2300,7 +2378,7 @@
     </row>
     <row r="35" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q35" s="3"/>
       <c r="S35" s="9"/>
@@ -2313,16 +2391,16 @@
     </row>
     <row r="37" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="C37" s="2">
         <v>6299</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="2">
         <v>8</v>
@@ -2334,20 +2412,20 @@
         <v>21</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N37" s="2">
         <v>2.2999999999999998</v>
       </c>
       <c r="Q37" s="3"/>
       <c r="S37" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T37" s="9"/>
     </row>
@@ -2774,9 +2852,9 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="T23" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="T31" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="T2" r:id="rId1"/>
+    <hyperlink ref="T23" r:id="rId2"/>
+    <hyperlink ref="T31" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/note/笔记本.xlsx
+++ b/note/笔记本.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp\www\react\e6-nolive\dva\note\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\react\dva\note\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600EE4FD-B93B-4A9F-A74C-2753E4B3674C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="5175" windowWidth="27600" windowHeight="9555"/>
+    <workbookView xWindow="0" yWindow="5175" windowWidth="27600" windowHeight="9555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="176">
   <si>
     <t>品牌</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -120,18 +121,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>镜面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z7M-CT7GS xx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z7-CT7NA xx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>雾面</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -311,10 +300,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Z7-KP7Z</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TX7-CT5DS</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -333,9 +318,6 @@
   <si>
     <t>90，显卡80</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZX7-CP5H2</t>
   </si>
   <si>
     <t>256GSSD（sata3）+1TB</t>
@@ -693,12 +675,100 @@
     <t>150w 小</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>6mm窄边 17.3 85%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZX7-CP5H2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同方IDX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z7-KP7Z??</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝天N957KP6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝天N960TC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6mm窄边 16.1 85%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZX8-CT5DA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4铜 4出风? 2风扇 38W</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTX2060</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N957TD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X3 深海泰坦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>256ssd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6mm窄边 17.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>397*266</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4铜 4出风 2风扇  37W</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>911plus 召唤师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铝合金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6mm 17.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72% ips 300nit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>180W</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -818,8 +888,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -840,7 +917,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,7 +963,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -957,6 +1046,18 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -966,8 +1067,23 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1284,13 +1400,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1342,22 +1458,22 @@
         <v>14</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>4</v>
@@ -1366,13 +1482,13 @@
         <v>5</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="T1" s="17" t="s">
         <v>15</v>
@@ -1395,25 +1511,25 @@
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="P2" s="2">
         <v>43</v>
@@ -1426,13 +1542,13 @@
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2">
         <v>6099</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2">
         <v>8</v>
@@ -1441,19 +1557,19 @@
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="3">
         <v>43647</v>
@@ -1463,13 +1579,13 @@
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C4" s="2">
         <v>4599</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2">
         <v>8</v>
@@ -1478,19 +1594,19 @@
         <v>13</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J4" s="2">
         <v>15.6</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="P4" s="2">
         <v>41</v>
@@ -1501,67 +1617,70 @@
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="K5" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
     </row>
-    <row r="6" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:20" s="24" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="24">
         <v>5979</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="24">
         <v>8</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="H6" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="N6" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="25">
         <v>0.96</v>
       </c>
-      <c r="R6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
+      <c r="R6" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>157</v>
       </c>
       <c r="C7" s="2">
         <v>5979</v>
@@ -1579,22 +1698,22 @@
         <v>20</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="S7" s="9"/>
@@ -1602,7 +1721,7 @@
     </row>
     <row r="8" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2">
         <v>5379</v>
@@ -1617,25 +1736,25 @@
         <v>13</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="Q8" s="3">
         <v>0.94</v>
@@ -1645,117 +1764,117 @@
     </row>
     <row r="9" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2">
         <v>4979</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E9" s="2">
         <v>8</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
     </row>
-    <row r="10" spans="1:20" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:20" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B10" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="24">
+        <v>5999</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="24">
+        <v>16</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="N10" s="24">
+        <v>2</v>
+      </c>
+      <c r="O10" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="2">
-        <v>5999</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="2">
-        <v>16</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="N10" s="2">
-        <v>2</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="25">
         <v>43618</v>
       </c>
-      <c r="S10" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="T10" s="9"/>
+      <c r="S10" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="T10" s="26"/>
     </row>
     <row r="11" spans="1:20" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C11" s="21">
         <v>6199</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E11" s="21">
         <v>8</v>
@@ -1767,135 +1886,147 @@
         <v>21</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>87</v>
+        <v>82</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="Q11" s="22"/>
       <c r="S11" s="23"/>
       <c r="T11" s="23"/>
     </row>
-    <row r="12" spans="1:20" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="C12" s="27">
+    <row r="12" spans="1:20" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="31">
         <v>6799</v>
       </c>
-      <c r="D12" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="27">
+      <c r="D12" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="31">
         <v>16</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="L12" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="N12" s="27">
+      <c r="G12" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="N12" s="31">
         <v>4</v>
       </c>
-      <c r="Q12" s="28"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
+      <c r="Q12" s="32"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
     </row>
     <row r="13" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q13" s="3"/>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
     </row>
-    <row r="14" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="1:20" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="31">
+        <v>6779</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="31">
+        <v>16</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="31">
+        <v>25</v>
+      </c>
+      <c r="L14" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="M14" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="N14" s="31">
+        <v>3.4</v>
+      </c>
+      <c r="O14" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" s="31">
+        <v>55</v>
+      </c>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="2">
-        <v>6779</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="2">
-        <v>16</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="2">
-        <v>25</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="N14" s="2">
-        <v>3.4</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="P14" s="2">
-        <v>55</v>
-      </c>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
     </row>
     <row r="15" spans="1:20" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="30" t="s">
-        <v>78</v>
+      <c r="B15" s="27" t="s">
+        <v>155</v>
       </c>
       <c r="C15" s="21">
         <v>5679</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E15" s="21">
         <v>8</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G15" s="21" t="s">
         <v>20</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>82</v>
+        <v>77</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="N15" s="21">
         <v>2.7</v>
@@ -1908,16 +2039,16 @@
     </row>
     <row r="16" spans="1:20" s="24" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B16" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E16" s="24">
         <v>8</v>
@@ -1926,23 +2057,26 @@
         <v>13</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="J16" s="24">
         <v>17.3</v>
       </c>
+      <c r="M16" s="21" t="s">
+        <v>140</v>
+      </c>
       <c r="O16" s="24" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="P16" s="24">
         <v>43</v>
       </c>
       <c r="Q16" s="25"/>
       <c r="S16" s="26" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="T16" s="26"/>
     </row>
@@ -1954,78 +2088,100 @@
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
     </row>
-    <row r="18" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18" s="2">
+    <row r="18" spans="1:20" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B18" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="28">
         <v>7299</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="28">
+        <v>16</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="M18" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="N18" s="28">
+        <v>2</v>
+      </c>
+      <c r="O18" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="2">
-        <v>16</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="N18" s="2">
-        <v>2</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="P18" s="2">
+      <c r="P18" s="28">
         <v>46</v>
       </c>
-      <c r="Q18" s="3"/>
-      <c r="S18" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="T18" s="9"/>
+      <c r="Q18" s="29"/>
+      <c r="S18" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="T18" s="30"/>
     </row>
     <row r="19" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="J19" s="28"/>
       <c r="Q19" s="3"/>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
     </row>
-    <row r="20" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q20" s="3"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
+    <row r="20" spans="1:20" s="34" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B20" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="34">
+        <v>6999</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="34">
+        <v>8</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="J20" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="L20" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="M20" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q20" s="35"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
     </row>
     <row r="21" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="Q21" s="3"/>
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
@@ -2037,16 +2193,16 @@
     </row>
     <row r="23" spans="1:20" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C23" s="2">
         <v>6059</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E23" s="2">
         <v>8</v>
@@ -2058,41 +2214,71 @@
         <v>21</v>
       </c>
       <c r="H23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L23" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="N23" s="2">
         <v>1.82</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="P23" s="2">
         <v>46</v>
       </c>
       <c r="Q23" s="3"/>
       <c r="R23" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S23" s="9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="2">
+        <v>7299</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="2">
+        <v>8</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="Q24" s="3"/>
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
@@ -2104,16 +2290,16 @@
     </row>
     <row r="26" spans="1:20" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C26" s="2">
         <v>5525</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E26" s="2">
         <v>8</v>
@@ -2125,48 +2311,48 @@
         <v>21</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="N26" s="2">
         <v>2.7</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q26" s="3">
         <v>43588</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="S26" s="9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C27" s="2">
         <v>6499</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E27" s="2">
         <v>8</v>
@@ -2178,26 +2364,26 @@
         <v>21</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="Q27" s="3"/>
       <c r="S27" s="9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="T27" s="9"/>
     </row>
     <row r="28" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C28" s="2">
         <v>5999</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E28" s="2">
         <v>8</v>
@@ -2209,23 +2395,23 @@
         <v>21</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="N28" s="2">
         <v>2.35</v>
       </c>
       <c r="Q28" s="3"/>
       <c r="S28" s="9" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="T28" s="9"/>
     </row>
@@ -2241,43 +2427,43 @@
     </row>
     <row r="31" spans="1:20" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C31" s="2">
         <v>5999</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="N31" s="2">
         <v>2.2999999999999998</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="P31" s="2">
         <v>52</v>
@@ -2286,19 +2472,19 @@
         <v>43588</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="S31" s="9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="T31" s="19" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="20" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C32" s="2">
         <v>6099</v>
@@ -2309,25 +2495,25 @@
     </row>
     <row r="33" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C33" s="2">
         <v>6699</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J33" s="2">
         <v>17.3</v>
@@ -2336,7 +2522,7 @@
         <v>25</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N33" s="2">
         <v>2.75</v>
@@ -2344,7 +2530,7 @@
       <c r="Q33" s="3"/>
       <c r="S33" s="9"/>
       <c r="T33" s="9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -2352,22 +2538,22 @@
         <v>6699</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E34" s="2">
         <v>8</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K34" s="2">
         <v>24</v>
@@ -2378,7 +2564,7 @@
     </row>
     <row r="35" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="Q35" s="3"/>
       <c r="S35" s="9"/>
@@ -2391,16 +2577,16 @@
     </row>
     <row r="37" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C37" s="2">
         <v>6299</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E37" s="2">
         <v>8</v>
@@ -2412,20 +2598,20 @@
         <v>21</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="N37" s="2">
         <v>2.2999999999999998</v>
       </c>
       <c r="Q37" s="3"/>
       <c r="S37" s="9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="T37" s="9"/>
     </row>
@@ -2434,10 +2620,43 @@
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
     </row>
-    <row r="39" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="Q39" s="3"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
+    <row r="39" spans="1:20" s="37" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" s="37">
+        <v>6199</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="37">
+        <v>8</v>
+      </c>
+      <c r="F39" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="I39" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="J39" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="O39" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q39" s="38"/>
+      <c r="S39" s="39"/>
+      <c r="T39" s="39"/>
     </row>
     <row r="40" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q40" s="3"/>
@@ -2852,9 +3071,9 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1"/>
-    <hyperlink ref="T23" r:id="rId2"/>
-    <hyperlink ref="T31" r:id="rId3"/>
+    <hyperlink ref="T2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="T23" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="T31" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/note/笔记本.xlsx
+++ b/note/笔记本.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\react\dva\note\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp\www\react\e6-nolive\dva\note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600EE4FD-B93B-4A9F-A74C-2753E4B3674C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5175" windowWidth="27600" windowHeight="9555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5175" windowWidth="27600" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="187">
   <si>
     <t>品牌</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -520,10 +519,6 @@
     <t>cup 频率不如暗影精灵5，网卡固态内存好品牌，噪音低，商务。中正评测 5699元.</t>
   </si>
   <si>
-    <t>vk碾压g7所有散热</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>i7-9750H</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -540,10 +535,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>HM370</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>180w</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -616,43 +607,179 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>蓝天NH70</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同方GK5CN5X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6300?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72% ips （雾面？）144</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耀7000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>85% ips 雾面？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20*360*244</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>150w 小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GX7-CT5DS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4铜 3出风 2风扇 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>150w 小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6mm窄边 17.3 85%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z7-KP7Z??</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝天N957KP6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6mm窄边 16.1 85%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZX8-CT5DA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4铜 4出风? 2风扇 38W</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTX2060</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N957TD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X3 深海泰坦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>256ssd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6mm窄边 17.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>397*266</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4铜 4出风 2风扇  37W</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>911plus 召唤师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铝合金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6mm 17.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72% ips 300nit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>180W</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同方GK5CP5X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同方GK7CP6R</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝天NH70</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同方IDX =同方GK5CP5X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.16-2.7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>33*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>同方GK5S</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>蓝天NH70</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>同方GK5CN5X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>94% ips （雾面？）122</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6300?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>72% ips （雾面？）144</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>耀7000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>85% ips 雾面？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20*360*244</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>150w 小</t>
+    <t>蓝天N960TC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZX7-CP5H2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HM370，是GK5CM64(Z2Air)的神舟贴牌产品，属于Z7-KP7(G)Z的继承者。有高色域。典型的水桶机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是ZX7-CT5DA拉皮换屏幕的版本，比较均衡的一台机器，相对于购买ZX7-CT5DA，还是推荐这个。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -660,115 +787,55 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>x</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GX7-CT5DS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4铜 3出风 2风扇 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>150w 小</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6mm窄边 17.3 85%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZX7-CP5H2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>同方IDX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z7-KP7Z??</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝天N957KP6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝天N960TC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6mm窄边 16.1 85%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZX8-CT5DA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4铜 4出风? 2风扇 38W</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RTX2060</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>N957TD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>X3 深海泰坦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>256ssd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6mm窄边 17.3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>397*266</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4铜 4出风 2风扇  37W</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷神</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>911plus 召唤师</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铝合金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6mm 17.3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>72% ips 300nit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>180W</t>
+    <t>不过屏幕是TN屏幕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G7-CT7VK，这款和机械革命X3同款模具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vk碾压g7所有散热，有相关反馈称此款 G7 存在驱动问题或是电源问题，请谨慎购买，建议将原装适配器更换成更大功率的。可以看作Z7-CT5NA的拉皮，屏幕素质相对来说很不错。N系模具最多压9400最多了，不推荐购买</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>94% ips （雾面？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）122</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -895,19 +962,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -933,6 +1002,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -963,7 +1050,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1037,26 +1124,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1084,6 +1156,48 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1400,19 +1514,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T121"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="O39" sqref="O39"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.75" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="13" style="13" customWidth="1"/>
     <col min="3" max="3" width="5.375" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
     <col min="5" max="5" width="5.375" customWidth="1"/>
@@ -1423,11 +1537,11 @@
     <col min="10" max="10" width="15.125" customWidth="1"/>
     <col min="11" max="11" width="10.75" customWidth="1"/>
     <col min="12" max="13" width="19.25" customWidth="1"/>
-    <col min="14" max="14" width="6" customWidth="1"/>
+    <col min="14" max="14" width="7.125" customWidth="1"/>
     <col min="15" max="15" width="10.875" customWidth="1"/>
     <col min="16" max="16" width="5.25" customWidth="1"/>
     <col min="17" max="17" width="8" style="1" customWidth="1"/>
-    <col min="18" max="18" width="42.875" customWidth="1"/>
+    <col min="18" max="18" width="31.375" style="16" customWidth="1"/>
     <col min="19" max="19" width="30.25" style="16" customWidth="1"/>
     <col min="20" max="20" width="49.125" style="16" customWidth="1"/>
   </cols>
@@ -1470,7 +1584,7 @@
         <v>30</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>26</v>
@@ -1484,7 +1598,7 @@
       <c r="Q1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="41" t="s">
         <v>28</v>
       </c>
       <c r="S1" s="15" t="s">
@@ -1535,6 +1649,7 @@
         <v>43</v>
       </c>
       <c r="Q2" s="3"/>
+      <c r="R2" s="9"/>
       <c r="S2" s="9"/>
       <c r="T2" s="18" t="s">
         <v>16</v>
@@ -1574,12 +1689,13 @@
       <c r="Q3" s="3">
         <v>43647</v>
       </c>
+      <c r="R3" s="9"/>
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C4" s="2">
         <v>4599</v>
@@ -1597,7 +1713,7 @@
         <v>51</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>41</v>
@@ -1606,12 +1722,13 @@
         <v>15.6</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P4" s="2">
         <v>41</v>
       </c>
       <c r="Q4" s="3"/>
+      <c r="R4" s="9"/>
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
     </row>
@@ -1620,67 +1737,67 @@
         <v>37</v>
       </c>
       <c r="Q5" s="3"/>
-      <c r="R5" s="2" t="s">
+      <c r="R5" s="9" t="s">
         <v>55</v>
       </c>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
     </row>
-    <row r="6" spans="1:20" s="24" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+    <row r="6" spans="1:20" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="21">
         <v>5979</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="21">
         <v>8</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="K6" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="N6" s="24" t="s">
+      <c r="M6" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="N6" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="Q6" s="25">
+      <c r="Q6" s="22">
         <v>0.96</v>
       </c>
-      <c r="R6" s="24" t="s">
+      <c r="R6" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C7" s="2">
         <v>5979</v>
@@ -1716,6 +1833,7 @@
         <v>32</v>
       </c>
       <c r="Q7" s="3"/>
+      <c r="R7" s="9"/>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
     </row>
@@ -1759,6 +1877,7 @@
       <c r="Q8" s="3">
         <v>0.94</v>
       </c>
+      <c r="R8" s="9"/>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
     </row>
@@ -1797,7 +1916,7 @@
         <v>65</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>32</v>
@@ -1806,400 +1925,485 @@
         <v>68</v>
       </c>
       <c r="Q9" s="3"/>
-      <c r="R9" s="2" t="s">
+      <c r="R9" s="9" t="s">
         <v>67</v>
       </c>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
     </row>
-    <row r="10" spans="1:20" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="24" t="s">
+    <row r="10" spans="1:20" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B10" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="21">
         <v>5999</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="21">
+        <v>16</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="N10" s="21">
+        <v>2</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q10" s="22">
+        <v>43618</v>
+      </c>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="T10" s="23"/>
+    </row>
+    <row r="11" spans="1:20" s="45" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="45">
+        <v>6779</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="45">
+        <v>16</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="45">
+        <v>25</v>
+      </c>
+      <c r="L11" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="M11" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="N11" s="45">
+        <v>3.4</v>
+      </c>
+      <c r="O11" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" s="45">
+        <v>55</v>
+      </c>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="S11" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="T11" s="47"/>
+    </row>
+    <row r="12" spans="1:20" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="26">
+        <v>5679</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="26">
+        <v>8</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="N12" s="26">
+        <v>2.7</v>
+      </c>
+      <c r="Q12" s="27">
+        <v>43588</v>
+      </c>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+    </row>
+    <row r="13" spans="1:20" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="48"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+    </row>
+    <row r="14" spans="1:20" s="35" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="35">
+        <v>6799</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="35">
+        <v>16</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="L14" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="24">
+      <c r="M14" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="N14" s="35">
+        <v>2</v>
+      </c>
+      <c r="O14" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="P14" s="35">
+        <v>46</v>
+      </c>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="T14" s="37"/>
+    </row>
+    <row r="15" spans="1:20" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="32">
+        <v>6199</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="32">
+        <v>8</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="K15" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="L15" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="M15" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="N15" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="O15" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+    </row>
+    <row r="16" spans="1:20" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="42">
+        <v>6799</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="42">
         <v>16</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F16" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="M10" s="24" t="s">
+      <c r="G16" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="J16" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="L16" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="N16" s="42">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="T16" s="44"/>
+    </row>
+    <row r="17" spans="1:20" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="N10" s="24">
-        <v>2</v>
-      </c>
-      <c r="O10" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q10" s="25">
-        <v>43618</v>
-      </c>
-      <c r="S10" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="T10" s="26"/>
-    </row>
-    <row r="11" spans="1:20" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" s="21">
-        <v>6199</v>
-      </c>
-      <c r="D11" s="21" t="s">
+      <c r="D17" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E17" s="32">
         <v>8</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F17" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="J11" s="2" t="s">
+      <c r="G17" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="J17" s="32">
+        <v>17.3</v>
+      </c>
+      <c r="K17" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="M17" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="N17" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="O17" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="P17" s="32">
+        <v>43</v>
+      </c>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="T17" s="34"/>
+    </row>
+    <row r="18" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C18" s="2">
+        <v>7699</v>
+      </c>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+    </row>
+    <row r="19" spans="1:20" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B19" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="26">
+        <v>6999</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="26">
+        <v>8</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="L19" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="L11" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="M11" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="O11" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q11" s="22"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-    </row>
-    <row r="12" spans="1:20" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="31">
-        <v>6799</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="31">
-        <v>16</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="J12" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="L12" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="N12" s="31">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="32"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-    </row>
-    <row r="13" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="Q13" s="3"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-    </row>
-    <row r="14" spans="1:20" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B14" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="31">
-        <v>6779</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="31">
-        <v>16</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="J14" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="K14" s="31">
-        <v>25</v>
-      </c>
-      <c r="L14" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="M14" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="N14" s="31">
-        <v>3.4</v>
-      </c>
-      <c r="O14" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="P14" s="31">
-        <v>55</v>
-      </c>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-    </row>
-    <row r="15" spans="1:20" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" s="21">
-        <v>5679</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="21">
-        <v>8</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="K15" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="L15" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="M15" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="N15" s="21">
-        <v>2.7</v>
-      </c>
-      <c r="Q15" s="22">
-        <v>43588</v>
-      </c>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-    </row>
-    <row r="16" spans="1:20" s="24" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="24">
-        <v>8</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="J16" s="24">
-        <v>17.3</v>
-      </c>
-      <c r="M16" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="O16" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="P16" s="24">
-        <v>43</v>
-      </c>
-      <c r="Q16" s="25"/>
-      <c r="S16" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="T16" s="26"/>
-    </row>
-    <row r="17" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C17" s="2">
-        <v>7699</v>
-      </c>
-      <c r="Q17" s="3"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-    </row>
-    <row r="18" spans="1:20" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B18" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="28">
-        <v>7299</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="28">
-        <v>16</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="J18" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="K18" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="L18" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="M18" s="28" t="s">
+      <c r="M19" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="N18" s="28">
-        <v>2</v>
-      </c>
-      <c r="O18" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="P18" s="28">
-        <v>46</v>
-      </c>
-      <c r="Q18" s="29"/>
-      <c r="S18" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="T18" s="30"/>
-    </row>
-    <row r="19" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="Q19" s="3"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-    </row>
-    <row r="20" spans="1:20" s="34" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B20" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="C20" s="34">
-        <v>6999</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="34">
-        <v>8</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="J20" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="L20" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="M20" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q20" s="35"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+    </row>
+    <row r="20" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
     </row>
     <row r="21" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q21" s="3"/>
+      <c r="R21" s="9"/>
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
     </row>
-    <row r="22" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="Q22" s="3"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-    </row>
-    <row r="23" spans="1:20" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+    <row r="22" spans="1:20" s="29" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B22" s="39" t="s">
         <v>104</v>
       </c>
+      <c r="C22" s="29">
+        <v>6059</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="29">
+        <v>8</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="K22" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="L22" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="M22" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="N22" s="29">
+        <v>1.82</v>
+      </c>
+      <c r="O22" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" s="29">
+        <v>46</v>
+      </c>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="S22" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="T22" s="40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="C23" s="2">
-        <v>6059</v>
+        <v>7299</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>59</v>
@@ -2208,95 +2412,101 @@
         <v>8</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>21</v>
+        <v>158</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>46</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="J23" s="2" t="s">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N23" s="2">
-        <v>1.82</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="P23" s="2">
-        <v>46</v>
+        <v>161</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="Q23" s="3"/>
-      <c r="R23" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="R23" s="9"/>
       <c r="S23" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="T23" s="5" t="s">
-        <v>94</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="T23" s="9"/>
     </row>
     <row r="24" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C24" s="2">
-        <v>7299</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="2">
-        <v>8</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="Q24" s="3"/>
+      <c r="R24" s="9"/>
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
     </row>
-    <row r="25" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="Q25" s="3"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-    </row>
-    <row r="26" spans="1:20" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+    <row r="25" spans="1:20" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="B25" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="2">
+        <v>5525</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="2">
+        <v>8</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N25" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>43588</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="S25" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="C26" s="2">
-        <v>5525</v>
+        <v>6499</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>85</v>
@@ -2314,42 +2524,21 @@
         <v>47</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="N26" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>43588</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>88</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="9"/>
       <c r="S26" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="T26" s="5" t="s">
-        <v>95</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="T26" s="9"/>
     </row>
     <row r="27" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="C27" s="2">
-        <v>6499</v>
+        <v>5999</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>85</v>
@@ -2366,145 +2555,156 @@
       <c r="H27" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="I27" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="J27" s="2" t="s">
-        <v>110</v>
+        <v>90</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="N27" s="2">
+        <v>2.35</v>
       </c>
       <c r="Q27" s="3"/>
+      <c r="R27" s="9"/>
       <c r="S27" s="9" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="T27" s="9"/>
     </row>
     <row r="28" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C28" s="2">
-        <v>5999</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="2">
-        <v>8</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="N28" s="2">
-        <v>2.35</v>
-      </c>
       <c r="Q28" s="3"/>
-      <c r="S28" s="9" t="s">
-        <v>131</v>
-      </c>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
       <c r="T28" s="9"/>
     </row>
     <row r="29" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q29" s="3"/>
+      <c r="R29" s="9"/>
       <c r="S29" s="9"/>
       <c r="T29" s="9"/>
     </row>
-    <row r="30" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="Q30" s="3"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
+    <row r="30" spans="1:20" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="2">
+        <v>5999</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N30" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P30" s="2">
+        <v>52</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>43588</v>
+      </c>
+      <c r="R30" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="S30" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="T30" s="19" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="31" spans="1:20" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>105</v>
+      <c r="A31" s="14"/>
+      <c r="B31" s="20" t="s">
+        <v>135</v>
       </c>
       <c r="C31" s="2">
-        <v>5999</v>
-      </c>
-      <c r="D31" s="2" t="s">
+        <v>6099</v>
+      </c>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="19"/>
+    </row>
+    <row r="32" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B32" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="2">
+        <v>6699</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="N31" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="P31" s="2">
-        <v>52</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>43588</v>
-      </c>
-      <c r="R31" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="S31" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="T31" s="19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
-      <c r="B32" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C32" s="2">
-        <v>6099</v>
+      <c r="J32" s="2">
+        <v>17.3</v>
+      </c>
+      <c r="K32" s="2">
+        <v>25</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N32" s="2">
+        <v>2.75</v>
       </c>
       <c r="Q32" s="3"/>
+      <c r="R32" s="9"/>
       <c r="S32" s="9"/>
-      <c r="T32" s="19"/>
+      <c r="T32" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="33" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B33" s="10" t="s">
-        <v>100</v>
-      </c>
       <c r="C33" s="2">
         <v>6699</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
+      </c>
+      <c r="E33" s="2">
+        <v>8</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>98</v>
@@ -2515,565 +2715,616 @@
       <c r="H33" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J33" s="2">
-        <v>17.3</v>
+      <c r="J33" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="K33" s="2">
-        <v>25</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="N33" s="2">
-        <v>2.75</v>
+        <v>24</v>
       </c>
       <c r="Q33" s="3"/>
+      <c r="R33" s="9"/>
       <c r="S33" s="9"/>
-      <c r="T33" s="9" t="s">
-        <v>101</v>
-      </c>
+      <c r="T33" s="9"/>
     </row>
     <row r="34" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C34" s="2">
-        <v>6699</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" s="2">
-        <v>8</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K34" s="2">
-        <v>24</v>
+      <c r="B34" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="Q34" s="3"/>
+      <c r="R34" s="9"/>
       <c r="S34" s="9"/>
       <c r="T34" s="9"/>
     </row>
     <row r="35" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B35" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="Q35" s="3"/>
+      <c r="R35" s="9"/>
       <c r="S35" s="9"/>
       <c r="T35" s="9"/>
     </row>
     <row r="36" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="2">
+        <v>6299</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="2">
+        <v>8</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N36" s="2">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="Q36" s="3"/>
-      <c r="S36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="T36" s="9"/>
     </row>
     <row r="37" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C37" s="2">
-        <v>6299</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="Q37" s="3"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+    </row>
+    <row r="38" spans="1:20" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" s="29">
+        <v>6199</v>
+      </c>
+      <c r="D38" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E38" s="29">
         <v>8</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F38" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G38" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="N37" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="Q37" s="3"/>
-      <c r="S37" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="T37" s="9"/>
-    </row>
-    <row r="38" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="Q38" s="3"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-    </row>
-    <row r="39" spans="1:20" s="37" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="B39" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="C39" s="37">
-        <v>6199</v>
-      </c>
-      <c r="D39" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="E39" s="37">
-        <v>8</v>
-      </c>
-      <c r="F39" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="I39" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="J39" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="O39" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q39" s="38"/>
-      <c r="S39" s="39"/>
-      <c r="T39" s="39"/>
+      <c r="H38" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="I38" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="J38" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="O38" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+    </row>
+    <row r="39" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
     </row>
     <row r="40" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q40" s="3"/>
+      <c r="R40" s="9"/>
       <c r="S40" s="9"/>
       <c r="T40" s="9"/>
     </row>
     <row r="41" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q41" s="3"/>
+      <c r="R41" s="9"/>
       <c r="S41" s="9"/>
       <c r="T41" s="9"/>
     </row>
     <row r="42" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q42" s="3"/>
+      <c r="R42" s="9"/>
       <c r="S42" s="9"/>
       <c r="T42" s="9"/>
     </row>
     <row r="43" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q43" s="3"/>
+      <c r="R43" s="9"/>
       <c r="S43" s="9"/>
       <c r="T43" s="9"/>
     </row>
     <row r="44" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q44" s="3"/>
+      <c r="R44" s="9"/>
       <c r="S44" s="9"/>
       <c r="T44" s="9"/>
     </row>
     <row r="45" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q45" s="3"/>
+      <c r="R45" s="9"/>
       <c r="S45" s="9"/>
       <c r="T45" s="9"/>
     </row>
     <row r="46" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q46" s="3"/>
+      <c r="R46" s="9"/>
       <c r="S46" s="9"/>
       <c r="T46" s="9"/>
     </row>
     <row r="47" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q47" s="3"/>
+      <c r="R47" s="9"/>
       <c r="S47" s="9"/>
       <c r="T47" s="9"/>
     </row>
     <row r="48" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q48" s="3"/>
+      <c r="R48" s="9"/>
       <c r="S48" s="9"/>
       <c r="T48" s="9"/>
     </row>
     <row r="49" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q49" s="3"/>
+      <c r="R49" s="9"/>
       <c r="S49" s="9"/>
       <c r="T49" s="9"/>
     </row>
     <row r="50" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q50" s="3"/>
+      <c r="R50" s="9"/>
       <c r="S50" s="9"/>
       <c r="T50" s="9"/>
     </row>
     <row r="51" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q51" s="3"/>
+      <c r="R51" s="9"/>
       <c r="S51" s="9"/>
       <c r="T51" s="9"/>
     </row>
     <row r="52" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q52" s="3"/>
+      <c r="R52" s="9"/>
       <c r="S52" s="9"/>
       <c r="T52" s="9"/>
     </row>
     <row r="53" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q53" s="3"/>
+      <c r="R53" s="9"/>
       <c r="S53" s="9"/>
       <c r="T53" s="9"/>
     </row>
     <row r="54" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q54" s="3"/>
+      <c r="R54" s="9"/>
       <c r="S54" s="9"/>
       <c r="T54" s="9"/>
     </row>
     <row r="55" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q55" s="3"/>
+      <c r="R55" s="9"/>
       <c r="S55" s="9"/>
       <c r="T55" s="9"/>
     </row>
     <row r="56" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q56" s="3"/>
+      <c r="R56" s="9"/>
       <c r="S56" s="9"/>
       <c r="T56" s="9"/>
     </row>
     <row r="57" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q57" s="3"/>
+      <c r="R57" s="9"/>
       <c r="S57" s="9"/>
       <c r="T57" s="9"/>
     </row>
     <row r="58" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q58" s="3"/>
+      <c r="R58" s="9"/>
       <c r="S58" s="9"/>
       <c r="T58" s="9"/>
     </row>
     <row r="59" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q59" s="3"/>
+      <c r="R59" s="9"/>
       <c r="S59" s="9"/>
       <c r="T59" s="9"/>
     </row>
     <row r="60" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q60" s="3"/>
+      <c r="R60" s="9"/>
       <c r="S60" s="9"/>
       <c r="T60" s="9"/>
     </row>
     <row r="61" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q61" s="3"/>
+      <c r="R61" s="9"/>
       <c r="S61" s="9"/>
       <c r="T61" s="9"/>
     </row>
     <row r="62" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q62" s="3"/>
+      <c r="R62" s="9"/>
       <c r="S62" s="9"/>
       <c r="T62" s="9"/>
     </row>
     <row r="63" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q63" s="3"/>
+      <c r="R63" s="9"/>
       <c r="S63" s="9"/>
       <c r="T63" s="9"/>
     </row>
     <row r="64" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q64" s="3"/>
+      <c r="R64" s="9"/>
       <c r="S64" s="9"/>
       <c r="T64" s="9"/>
     </row>
     <row r="65" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q65" s="3"/>
+      <c r="R65" s="9"/>
       <c r="S65" s="9"/>
       <c r="T65" s="9"/>
     </row>
     <row r="66" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q66" s="3"/>
+      <c r="R66" s="9"/>
       <c r="S66" s="9"/>
       <c r="T66" s="9"/>
     </row>
     <row r="67" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q67" s="3"/>
+      <c r="R67" s="9"/>
       <c r="S67" s="9"/>
       <c r="T67" s="9"/>
     </row>
     <row r="68" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q68" s="3"/>
+      <c r="R68" s="9"/>
       <c r="S68" s="9"/>
       <c r="T68" s="9"/>
     </row>
     <row r="69" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q69" s="3"/>
+      <c r="R69" s="9"/>
       <c r="S69" s="9"/>
       <c r="T69" s="9"/>
     </row>
     <row r="70" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q70" s="3"/>
+      <c r="R70" s="9"/>
       <c r="S70" s="9"/>
       <c r="T70" s="9"/>
     </row>
     <row r="71" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q71" s="3"/>
+      <c r="R71" s="9"/>
       <c r="S71" s="9"/>
       <c r="T71" s="9"/>
     </row>
     <row r="72" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q72" s="3"/>
+      <c r="R72" s="9"/>
       <c r="S72" s="9"/>
       <c r="T72" s="9"/>
     </row>
     <row r="73" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q73" s="3"/>
+      <c r="R73" s="9"/>
       <c r="S73" s="9"/>
       <c r="T73" s="9"/>
     </row>
     <row r="74" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q74" s="3"/>
+      <c r="R74" s="9"/>
       <c r="S74" s="9"/>
       <c r="T74" s="9"/>
     </row>
     <row r="75" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q75" s="3"/>
+      <c r="R75" s="9"/>
       <c r="S75" s="9"/>
       <c r="T75" s="9"/>
     </row>
     <row r="76" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q76" s="3"/>
+      <c r="R76" s="9"/>
       <c r="S76" s="9"/>
       <c r="T76" s="9"/>
     </row>
     <row r="77" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q77" s="3"/>
+      <c r="R77" s="9"/>
       <c r="S77" s="9"/>
       <c r="T77" s="9"/>
     </row>
     <row r="78" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q78" s="3"/>
+      <c r="R78" s="9"/>
       <c r="S78" s="9"/>
       <c r="T78" s="9"/>
     </row>
     <row r="79" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q79" s="3"/>
+      <c r="R79" s="9"/>
       <c r="S79" s="9"/>
       <c r="T79" s="9"/>
     </row>
     <row r="80" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q80" s="3"/>
+      <c r="R80" s="9"/>
       <c r="S80" s="9"/>
       <c r="T80" s="9"/>
     </row>
     <row r="81" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q81" s="3"/>
+      <c r="R81" s="9"/>
       <c r="S81" s="9"/>
       <c r="T81" s="9"/>
     </row>
     <row r="82" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q82" s="3"/>
+      <c r="R82" s="9"/>
       <c r="S82" s="9"/>
       <c r="T82" s="9"/>
     </row>
     <row r="83" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q83" s="3"/>
+      <c r="R83" s="9"/>
       <c r="S83" s="9"/>
       <c r="T83" s="9"/>
     </row>
     <row r="84" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q84" s="3"/>
+      <c r="R84" s="9"/>
       <c r="S84" s="9"/>
       <c r="T84" s="9"/>
     </row>
     <row r="85" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q85" s="3"/>
+      <c r="R85" s="9"/>
       <c r="S85" s="9"/>
       <c r="T85" s="9"/>
     </row>
     <row r="86" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q86" s="3"/>
+      <c r="R86" s="9"/>
       <c r="S86" s="9"/>
       <c r="T86" s="9"/>
     </row>
     <row r="87" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q87" s="3"/>
+      <c r="R87" s="9"/>
       <c r="S87" s="9"/>
       <c r="T87" s="9"/>
     </row>
     <row r="88" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q88" s="3"/>
+      <c r="R88" s="9"/>
       <c r="S88" s="9"/>
       <c r="T88" s="9"/>
     </row>
     <row r="89" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q89" s="3"/>
+      <c r="R89" s="9"/>
       <c r="S89" s="9"/>
       <c r="T89" s="9"/>
     </row>
     <row r="90" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q90" s="3"/>
+      <c r="R90" s="9"/>
       <c r="S90" s="9"/>
       <c r="T90" s="9"/>
     </row>
     <row r="91" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q91" s="3"/>
+      <c r="R91" s="9"/>
       <c r="S91" s="9"/>
       <c r="T91" s="9"/>
     </row>
     <row r="92" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q92" s="3"/>
+      <c r="R92" s="9"/>
       <c r="S92" s="9"/>
       <c r="T92" s="9"/>
     </row>
     <row r="93" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q93" s="3"/>
+      <c r="R93" s="9"/>
       <c r="S93" s="9"/>
       <c r="T93" s="9"/>
     </row>
     <row r="94" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q94" s="3"/>
+      <c r="R94" s="9"/>
       <c r="S94" s="9"/>
       <c r="T94" s="9"/>
     </row>
     <row r="95" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q95" s="3"/>
+      <c r="R95" s="9"/>
       <c r="S95" s="9"/>
       <c r="T95" s="9"/>
     </row>
     <row r="96" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q96" s="3"/>
+      <c r="R96" s="9"/>
       <c r="S96" s="9"/>
       <c r="T96" s="9"/>
     </row>
     <row r="97" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q97" s="3"/>
+      <c r="R97" s="9"/>
       <c r="S97" s="9"/>
       <c r="T97" s="9"/>
     </row>
     <row r="98" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q98" s="3"/>
+      <c r="R98" s="9"/>
       <c r="S98" s="9"/>
       <c r="T98" s="9"/>
     </row>
     <row r="99" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q99" s="3"/>
+      <c r="R99" s="9"/>
       <c r="S99" s="9"/>
       <c r="T99" s="9"/>
     </row>
     <row r="100" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q100" s="3"/>
+      <c r="R100" s="9"/>
       <c r="S100" s="9"/>
       <c r="T100" s="9"/>
     </row>
     <row r="101" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q101" s="3"/>
+      <c r="R101" s="9"/>
       <c r="S101" s="9"/>
       <c r="T101" s="9"/>
     </row>
     <row r="102" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q102" s="3"/>
+      <c r="R102" s="9"/>
       <c r="S102" s="9"/>
       <c r="T102" s="9"/>
     </row>
     <row r="103" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q103" s="3"/>
+      <c r="R103" s="9"/>
       <c r="S103" s="9"/>
       <c r="T103" s="9"/>
     </row>
     <row r="104" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q104" s="3"/>
+      <c r="R104" s="9"/>
       <c r="S104" s="9"/>
       <c r="T104" s="9"/>
     </row>
     <row r="105" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q105" s="3"/>
+      <c r="R105" s="9"/>
       <c r="S105" s="9"/>
       <c r="T105" s="9"/>
     </row>
     <row r="106" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q106" s="3"/>
+      <c r="R106" s="9"/>
       <c r="S106" s="9"/>
       <c r="T106" s="9"/>
     </row>
     <row r="107" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q107" s="3"/>
+      <c r="R107" s="9"/>
       <c r="S107" s="9"/>
       <c r="T107" s="9"/>
     </row>
     <row r="108" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q108" s="3"/>
+      <c r="R108" s="9"/>
       <c r="S108" s="9"/>
       <c r="T108" s="9"/>
     </row>
     <row r="109" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q109" s="3"/>
+      <c r="R109" s="9"/>
       <c r="S109" s="9"/>
       <c r="T109" s="9"/>
     </row>
     <row r="110" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q110" s="3"/>
+      <c r="R110" s="9"/>
       <c r="S110" s="9"/>
       <c r="T110" s="9"/>
     </row>
     <row r="111" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q111" s="3"/>
+      <c r="R111" s="9"/>
       <c r="S111" s="9"/>
       <c r="T111" s="9"/>
     </row>
     <row r="112" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q112" s="3"/>
+      <c r="R112" s="9"/>
       <c r="S112" s="9"/>
       <c r="T112" s="9"/>
     </row>
     <row r="113" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q113" s="3"/>
+      <c r="R113" s="9"/>
       <c r="S113" s="9"/>
       <c r="T113" s="9"/>
     </row>
     <row r="114" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q114" s="3"/>
+      <c r="R114" s="9"/>
       <c r="S114" s="9"/>
       <c r="T114" s="9"/>
     </row>
     <row r="115" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q115" s="3"/>
+      <c r="R115" s="9"/>
       <c r="S115" s="9"/>
       <c r="T115" s="9"/>
     </row>
     <row r="116" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q116" s="3"/>
+      <c r="R116" s="9"/>
       <c r="S116" s="9"/>
       <c r="T116" s="9"/>
     </row>
     <row r="117" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q117" s="3"/>
+      <c r="R117" s="9"/>
       <c r="S117" s="9"/>
       <c r="T117" s="9"/>
     </row>
     <row r="118" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q118" s="3"/>
+      <c r="R118" s="9"/>
       <c r="S118" s="9"/>
       <c r="T118" s="9"/>
     </row>
     <row r="119" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q119" s="3"/>
+      <c r="R119" s="9"/>
       <c r="S119" s="9"/>
       <c r="T119" s="9"/>
     </row>
     <row r="120" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q120" s="3"/>
+      <c r="R120" s="9"/>
       <c r="S120" s="9"/>
       <c r="T120" s="9"/>
-    </row>
-    <row r="121" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="Q121" s="3"/>
-      <c r="S121" s="9"/>
-      <c r="T121" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="T23" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="T31" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="T2" r:id="rId1"/>
+    <hyperlink ref="T22" r:id="rId2"/>
+    <hyperlink ref="T30" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/note/笔记本.xlsx
+++ b/note/笔记本.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="193">
   <si>
     <t>品牌</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -192,10 +192,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>68% ips 雾面 316尼特</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>69% ips 雾面</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -423,10 +419,6 @@
   </si>
   <si>
     <t>光影精灵5 Plus</t>
-  </si>
-  <si>
-    <t>USB2个，1个typeC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>4铜 2出风 2风扇</t>
@@ -767,10 +759,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ZX7-CP5H2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>HM370，是GK5CM64(Z2Air)的神舟贴牌产品，属于Z7-KP7(G)Z的继承者。有高色域。典型的水桶机</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -828,6 +816,41 @@
   </si>
   <si>
     <t>！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2+2.6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>150w（19V 7.89A）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72% ips 雾面 316尼特</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双烤模式下的，CPU与显卡双双到达了80度，CPU更是有82度的高温，但是CPU的频率并不高，只有默频的2.2Ghz，显卡的表现比较正常并没有出现降频的情况。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB2个，1个typeC</t>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s?src=11&amp;timestamp=1565172616&amp;ver=1776&amp;signature=bO49aE6HMP6NLNOf9MuX31l15pJGexyu*FPg5T3fE5Pp0Lu4k3vzBuTsMyoSKLxEuzD8w9-kXG6Rer0bPKKFRtzEugLgPYP6UlF3U7jL3EMpg0Anp4lz3MIa3DxzNiZG&amp;new=1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZX7-CP5H2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>230w</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1016,7 +1039,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1050,7 +1073,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1187,6 +1210,9 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1196,8 +1222,8 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1515,12 +1541,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T120"/>
+  <dimension ref="A1:T121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1538,7 +1564,7 @@
     <col min="11" max="11" width="10.75" customWidth="1"/>
     <col min="12" max="13" width="19.25" customWidth="1"/>
     <col min="14" max="14" width="7.125" customWidth="1"/>
-    <col min="15" max="15" width="10.875" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
     <col min="16" max="16" width="5.25" customWidth="1"/>
     <col min="17" max="17" width="8" style="1" customWidth="1"/>
     <col min="18" max="18" width="31.375" style="16" customWidth="1"/>
@@ -1584,7 +1610,7 @@
         <v>30</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>26</v>
@@ -1596,13 +1622,13 @@
         <v>5</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R1" s="41" t="s">
         <v>28</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="T1" s="17" t="s">
         <v>15</v>
@@ -1631,7 +1657,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>40</v>
@@ -1657,13 +1683,13 @@
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2">
         <v>6099</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2">
         <v>8</v>
@@ -1672,16 +1698,16 @@
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>33</v>
@@ -1695,13 +1721,13 @@
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C4" s="2">
         <v>4599</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2">
         <v>8</v>
@@ -1710,10 +1736,10 @@
         <v>13</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>41</v>
@@ -1722,7 +1748,7 @@
         <v>15.6</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P4" s="2">
         <v>41</v>
@@ -1738,12 +1764,12 @@
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
     </row>
-    <row r="6" spans="1:20" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" s="21" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>17</v>
       </c>
@@ -1766,7 +1792,7 @@
         <v>20</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>42</v>
+        <v>186</v>
       </c>
       <c r="I6" s="21" t="s">
         <v>41</v>
@@ -1781,23 +1807,33 @@
         <v>31</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>32</v>
+        <v>184</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="P6" s="21">
+        <v>46</v>
       </c>
       <c r="Q6" s="22">
         <v>0.96</v>
       </c>
       <c r="R6" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
+        <v>65</v>
+      </c>
+      <c r="S6" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="T6" s="49" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C7" s="2">
         <v>5979</v>
@@ -1815,7 +1851,7 @@
         <v>20</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>41</v>
@@ -1839,7 +1875,7 @@
     </row>
     <row r="8" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2">
         <v>5379</v>
@@ -1854,10 +1890,10 @@
         <v>13</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>41</v>
@@ -1869,7 +1905,7 @@
         <v>38</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>32</v>
@@ -1883,13 +1919,13 @@
     </row>
     <row r="9" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="2">
         <v>4979</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2">
         <v>8</v>
@@ -1898,10 +1934,10 @@
         <v>27</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>41</v>
@@ -1913,167 +1949,121 @@
         <v>38</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
     </row>
-    <row r="10" spans="1:20" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="21">
-        <v>5999</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="21">
+    <row r="11" spans="1:20" s="46" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="46">
+        <v>6779</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="46">
         <v>16</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F11" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" s="21" t="s">
+      <c r="G11" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="46">
+        <v>25</v>
+      </c>
+      <c r="L11" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="M11" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="N11" s="46">
+        <v>3.4</v>
+      </c>
+      <c r="O11" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="46">
+        <v>55</v>
+      </c>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="M10" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="N10" s="21">
-        <v>2</v>
-      </c>
-      <c r="O10" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q10" s="22">
-        <v>43618</v>
-      </c>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="T10" s="23"/>
-    </row>
-    <row r="11" spans="1:20" s="45" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="45">
-        <v>6779</v>
-      </c>
-      <c r="D11" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="45">
-        <v>16</v>
-      </c>
-      <c r="F11" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11" s="45">
-        <v>25</v>
-      </c>
-      <c r="L11" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="M11" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="N11" s="45">
-        <v>3.4</v>
-      </c>
-      <c r="O11" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="P11" s="45">
-        <v>55</v>
-      </c>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="S11" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="T11" s="47"/>
+      <c r="S11" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="T11" s="48"/>
     </row>
     <row r="12" spans="1:20" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="48" t="s">
-        <v>177</v>
+      <c r="B12" s="45" t="s">
+        <v>191</v>
       </c>
       <c r="C12" s="26">
         <v>5679</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="26">
         <v>8</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G12" s="26" t="s">
         <v>20</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I12" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="K12" s="26" t="s">
+      <c r="L12" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="L12" s="26" t="s">
-        <v>77</v>
-      </c>
       <c r="M12" s="26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N12" s="26">
         <v>2.7</v>
+      </c>
+      <c r="O12" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="P12" s="26">
+        <v>62</v>
       </c>
       <c r="Q12" s="27">
         <v>43588</v>
@@ -2083,7 +2073,7 @@
       <c r="T12" s="28"/>
     </row>
     <row r="13" spans="1:20" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="48"/>
+      <c r="B13" s="45"/>
       <c r="Q13" s="27"/>
       <c r="R13" s="28"/>
       <c r="S13" s="28"/>
@@ -2091,25 +2081,25 @@
     </row>
     <row r="14" spans="1:20" s="35" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C14" s="35">
         <v>6799</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E14" s="35">
         <v>16</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" s="35" t="s">
         <v>24</v>
@@ -2121,19 +2111,19 @@
         <v>29</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L14" s="35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M14" s="35" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N14" s="35">
         <v>2</v>
       </c>
       <c r="O14" s="35" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P14" s="35">
         <v>46</v>
@@ -2141,375 +2131,380 @@
       <c r="Q14" s="36"/>
       <c r="R14" s="37"/>
       <c r="S14" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="T14" s="37"/>
+    </row>
+    <row r="15" spans="1:20" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="26">
+        <v>6999</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="26">
+        <v>8</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="M15" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+    </row>
+    <row r="16" spans="1:20" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="L16" s="24"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+    </row>
+    <row r="17" spans="1:20" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="29">
+        <v>5999</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="29">
+        <v>16</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="M17" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="N17" s="29">
+        <v>2</v>
+      </c>
+      <c r="O17" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q17" s="30">
+        <v>43618</v>
+      </c>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="T17" s="31"/>
+    </row>
+    <row r="18" spans="1:20" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="32">
+        <v>6199</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="32">
+        <v>8</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="K18" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="L18" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="M18" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="N18" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="O18" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+    </row>
+    <row r="19" spans="1:20" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="T14" s="37"/>
-    </row>
-    <row r="15" spans="1:20" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="32" t="s">
+      <c r="B19" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="42">
+        <v>6799</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="42">
+        <v>16</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="J19" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="L19" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="B15" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="32">
-        <v>6199</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="32">
+      <c r="N19" s="42">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="T19" s="44"/>
+    </row>
+    <row r="20" spans="1:20" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="32">
         <v>8</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F20" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="J15" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="K15" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="L15" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="M15" s="32" t="s">
+      <c r="G20" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="J20" s="32">
+        <v>17.3</v>
+      </c>
+      <c r="K20" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="M20" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="N20" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="N15" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="O15" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-    </row>
-    <row r="16" spans="1:20" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="42" t="s">
+      <c r="O20" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="P20" s="32">
+        <v>43</v>
+      </c>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="B16" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="42">
-        <v>6799</v>
-      </c>
-      <c r="D16" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="42">
-        <v>16</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="J16" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="L16" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="N16" s="42">
-        <v>4</v>
-      </c>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44" t="s">
-        <v>182</v>
-      </c>
-      <c r="T16" s="44"/>
-    </row>
-    <row r="17" spans="1:20" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="32">
-        <v>8</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="J17" s="32">
-        <v>17.3</v>
-      </c>
-      <c r="K17" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="M17" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="N17" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="O17" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="P17" s="32">
-        <v>43</v>
-      </c>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="T17" s="34"/>
-    </row>
-    <row r="18" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C18" s="2">
+      <c r="T20" s="34"/>
+    </row>
+    <row r="21" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C21" s="2">
         <v>7699</v>
       </c>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-    </row>
-    <row r="19" spans="1:20" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B19" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="26">
-        <v>6999</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="26">
-        <v>8</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="J19" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="L19" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="M19" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-    </row>
-    <row r="20" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="Q20" s="3"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-    </row>
-    <row r="21" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q21" s="3"/>
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
     </row>
-    <row r="22" spans="1:20" s="29" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="38" t="s">
+    <row r="22" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+    </row>
+    <row r="23" spans="1:20" s="29" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="29">
+        <v>6059</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="29">
+        <v>8</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" s="29">
-        <v>6059</v>
-      </c>
-      <c r="D22" s="29" t="s">
+      <c r="K23" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="L23" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="M23" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="N23" s="29">
+        <v>1.82</v>
+      </c>
+      <c r="O23" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="29">
+      <c r="P23" s="29">
+        <v>46</v>
+      </c>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="S23" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="T23" s="40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="2">
+        <v>7299</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="2">
         <v>8</v>
       </c>
-      <c r="F22" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I22" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="J22" s="29" t="s">
+      <c r="F24" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K22" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="L22" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="M22" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="N22" s="29">
-        <v>1.82</v>
-      </c>
-      <c r="O22" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="P22" s="29">
-        <v>46</v>
-      </c>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="S22" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="T22" s="40" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C23" s="2">
-        <v>7299</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="2">
-        <v>8</v>
-      </c>
-      <c r="F23" s="2" t="s">
+      <c r="K24" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G23" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J23" s="2" t="s">
+      <c r="L24" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="T23" s="9"/>
-    </row>
-    <row r="24" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M24" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="Q24" s="3"/>
       <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
+      <c r="S24" s="9" t="s">
+        <v>180</v>
+      </c>
       <c r="T24" s="9"/>
     </row>
-    <row r="25" spans="1:20" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+    </row>
+    <row r="26" spans="1:20" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="2">
+        <v>5525</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C25" s="2">
-        <v>5525</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="2">
-        <v>8</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="N25" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q25" s="3">
-        <v>43588</v>
-      </c>
-      <c r="R25" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="S25" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="T25" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="2">
-        <v>6499</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="E26" s="2">
         <v>8</v>
@@ -2521,27 +2516,48 @@
         <v>21</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="9"/>
+        <v>89</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N26" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>43588</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>87</v>
+      </c>
       <c r="S26" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="T26" s="9"/>
+        <v>132</v>
+      </c>
+      <c r="T26" s="5" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="27" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="C27" s="2">
-        <v>5999</v>
+        <v>6499</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E27" s="2">
         <v>8</v>
@@ -2553,31 +2569,57 @@
         <v>21</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N27" s="2">
-        <v>2.35</v>
+        <v>108</v>
       </c>
       <c r="Q27" s="3"/>
       <c r="R27" s="9"/>
       <c r="S27" s="9" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="T27" s="9"/>
     </row>
     <row r="28" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="2">
+        <v>5999</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="2">
+        <v>8</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N28" s="2">
+        <v>2.35</v>
+      </c>
       <c r="Q28" s="3"/>
       <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
+      <c r="S28" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="T28" s="9"/>
     </row>
     <row r="29" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -2586,149 +2628,146 @@
       <c r="S29" s="9"/>
       <c r="T29" s="9"/>
     </row>
-    <row r="30" spans="1:20" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B30" s="12" t="s">
+    <row r="30" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+    </row>
+    <row r="31" spans="1:20" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="2">
+      <c r="B31" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="2">
         <v>5999</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="D31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="F31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J30" s="2" t="s">
+      <c r="H31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K31" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="L31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="N31" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O31" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L30" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="N30" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="P30" s="2">
+      <c r="P31" s="2">
         <v>52</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="Q31" s="3">
         <v>43588</v>
       </c>
-      <c r="R30" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="S30" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="T30" s="19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C31" s="2">
+      <c r="R31" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="S31" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="T31" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="14"/>
+      <c r="B32" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="2">
         <v>6099</v>
-      </c>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="19"/>
-    </row>
-    <row r="32" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B32" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="2">
-        <v>6699</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J32" s="2">
-        <v>17.3</v>
-      </c>
-      <c r="K32" s="2">
-        <v>25</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="N32" s="2">
-        <v>2.75</v>
       </c>
       <c r="Q32" s="3"/>
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
-      <c r="T32" s="9" t="s">
-        <v>101</v>
-      </c>
+      <c r="T32" s="19"/>
     </row>
     <row r="33" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B33" s="10" t="s">
+        <v>99</v>
+      </c>
       <c r="C33" s="2">
         <v>6699</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E33" s="2">
-        <v>8</v>
+        <v>84</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
+      </c>
+      <c r="J33" s="2">
+        <v>17.3</v>
       </c>
       <c r="K33" s="2">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N33" s="2">
+        <v>2.75</v>
       </c>
       <c r="Q33" s="3"/>
       <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
+      <c r="S33" s="9" t="s">
+        <v>188</v>
+      </c>
       <c r="T33" s="9"/>
     </row>
     <row r="34" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B34" s="2" t="s">
-        <v>103</v>
+      <c r="C34" s="2">
+        <v>6699</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="2">
+        <v>8</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K34" s="2">
+        <v>24</v>
       </c>
       <c r="Q34" s="3"/>
       <c r="R34" s="9"/>
@@ -2736,102 +2775,105 @@
       <c r="T34" s="9"/>
     </row>
     <row r="35" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="Q35" s="3"/>
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
       <c r="T35" s="9"/>
     </row>
     <row r="36" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" s="2">
-        <v>6299</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E36" s="2">
-        <v>8</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="N36" s="2">
-        <v>2.2999999999999998</v>
-      </c>
       <c r="Q36" s="3"/>
       <c r="R36" s="9"/>
-      <c r="S36" s="9" t="s">
-        <v>126</v>
-      </c>
+      <c r="S36" s="9"/>
       <c r="T36" s="9"/>
     </row>
     <row r="37" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="2">
+        <v>6299</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" s="2">
+        <v>8</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="N37" s="2">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="Q37" s="3"/>
       <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
+      <c r="S37" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="T37" s="9"/>
     </row>
-    <row r="38" spans="1:20" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="29" t="s">
+    <row r="38" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q38" s="3"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+    </row>
+    <row r="39" spans="1:20" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="29">
+        <v>6199</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="29">
+        <v>8</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="I39" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="J39" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="C38" s="29">
-        <v>6199</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="E38" s="29">
-        <v>8</v>
-      </c>
-      <c r="F38" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="I38" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="J38" s="29" t="s">
+      <c r="O39" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="O38" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-    </row>
-    <row r="39" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="Q39" s="3"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
+      <c r="T39" s="31"/>
     </row>
     <row r="40" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q40" s="3"/>
@@ -3319,14 +3361,21 @@
       <c r="S120" s="9"/>
       <c r="T120" s="9"/>
     </row>
+    <row r="121" spans="17:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q121" s="3"/>
+      <c r="R121" s="9"/>
+      <c r="S121" s="9"/>
+      <c r="T121" s="9"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="T2" r:id="rId1"/>
-    <hyperlink ref="T22" r:id="rId2"/>
-    <hyperlink ref="T30" r:id="rId3"/>
+    <hyperlink ref="T23" r:id="rId2"/>
+    <hyperlink ref="T31" r:id="rId3"/>
+    <hyperlink ref="T6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/note/笔记本.xlsx
+++ b/note/笔记本.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="214">
   <si>
     <t>品牌</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -164,10 +164,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>窄边 16.1 81%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>4铜 3出风 2风扇 27W</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -271,27 +267,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Z7M-KP5GZ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>20*</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4铜 4出风 2风扇 22W</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>30分钟 2.73G-90-45w，显卡1404M-79</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.7G-90-34w，显卡1455M-76</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>120w,90C</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -703,23 +683,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>911plus 召唤师</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>铝合金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6mm 17.3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>72% ips 300nit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>180W</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -853,12 +817,132 @@
     <t>230w</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>火影</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱火X6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i7-8750H</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72% ips 144HZ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pcie-256ssd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2铜 2出风 2风扇 29W </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>150W</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>28*368*260</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X9 PLUS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人脸识别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.3 84%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2铜 2出风 2风扇 31W </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>28*395*260</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>150W 19V</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>120W 19V</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>911ME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>128ssd + 1T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6mm 15.6 83%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4铜 2出风 2风扇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>120W</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5-3.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3Ti</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">窄边 6mm 15.6 81% </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>28*360*260</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5-3.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窄边 10mm 16.1 81%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5499(4800)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>180W</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>h370主板</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>散热配置甚至可以说是8000元以下最强，b站上有拆机视频，B站找小秋搞机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -993,8 +1077,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1043,6 +1133,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1073,7 +1169,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1138,15 +1234,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1222,8 +1309,20 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1543,17 +1642,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
+      <selection pane="bottomLeft" activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.75" customWidth="1"/>
     <col min="2" max="2" width="13" style="13" customWidth="1"/>
-    <col min="3" max="3" width="5.375" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
     <col min="5" max="5" width="5.375" customWidth="1"/>
     <col min="6" max="6" width="19.625" customWidth="1"/>
@@ -1598,7 +1697,7 @@
         <v>14</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>3</v>
@@ -1610,7 +1709,7 @@
         <v>30</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>26</v>
@@ -1622,13 +1721,13 @@
         <v>5</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="R1" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="38" t="s">
         <v>28</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="T1" s="17" t="s">
         <v>15</v>
@@ -1641,8 +1740,8 @@
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2">
-        <v>5499</v>
+      <c r="C2" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -1657,39 +1756,44 @@
         <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="O2" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="P2" s="2">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
+      <c r="S2" s="9" t="s">
+        <v>213</v>
+      </c>
       <c r="T2" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2">
         <v>6099</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2">
         <v>8</v>
@@ -1698,36 +1802,42 @@
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="O3" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="Q3" s="3">
         <v>43647</v>
       </c>
       <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
+      <c r="S3" s="50"/>
       <c r="T3" s="9"/>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C4" s="2">
         <v>4599</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2">
         <v>8</v>
@@ -1736,19 +1846,19 @@
         <v>13</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J4" s="2">
         <v>15.6</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="P4" s="2">
         <v>41</v>
@@ -1759,126 +1869,123 @@
       <c r="T4" s="9"/>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7089</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="2">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="K5" s="2" t="s">
-        <v>37</v>
+        <v>207</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="Q5" s="3"/>
-      <c r="R5" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="R5" s="9"/>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
     </row>
-    <row r="6" spans="1:20" s="21" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="K6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+    </row>
+    <row r="7" spans="1:20" s="46" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B7" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C7" s="46">
         <v>5979</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D7" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E7" s="46">
         <v>8</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F7" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G7" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="21" t="s">
+      <c r="H7" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="I7" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="21" t="s">
+      <c r="K7" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="N6" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="O6" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="P6" s="21">
+      <c r="M7" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="N7" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="O7" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="P7" s="46">
         <v>46</v>
       </c>
-      <c r="Q6" s="22">
+      <c r="Q7" s="47">
         <v>0.96</v>
       </c>
-      <c r="R6" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="S6" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="T6" s="49" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" s="2">
-        <v>5979</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="2">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
+      <c r="R7" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="S7" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="T7" s="49" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="8" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="C8" s="2">
-        <v>5379</v>
+        <v>5979</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>19</v>
@@ -1890,486 +1997,478 @@
         <v>13</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0.94</v>
-      </c>
+      <c r="Q8" s="3"/>
       <c r="R8" s="9"/>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
     </row>
     <row r="9" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2">
-        <v>4979</v>
+        <v>5379</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2">
         <v>8</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="9" t="s">
-        <v>66</v>
-      </c>
+      <c r="Q9" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="R9" s="9"/>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
     </row>
-    <row r="11" spans="1:20" s="46" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="46" t="s">
+    <row r="11" spans="1:20" s="43" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="43">
+        <v>6779</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="43">
+        <v>16</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="43">
+        <v>25</v>
+      </c>
+      <c r="L11" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="N11" s="43">
+        <v>3.4</v>
+      </c>
+      <c r="O11" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="43">
+        <v>55</v>
+      </c>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="S11" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="T11" s="45"/>
+    </row>
+    <row r="12" spans="1:20" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="23">
+        <v>5679</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="23">
+        <v>8</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="N12" s="23">
+        <v>2.7</v>
+      </c>
+      <c r="O12" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="P12" s="23">
+        <v>62</v>
+      </c>
+      <c r="Q12" s="24">
+        <v>43588</v>
+      </c>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+    </row>
+    <row r="13" spans="1:20" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="42"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+    </row>
+    <row r="14" spans="1:20" s="32" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="32">
+        <v>6799</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="32">
+        <v>16</v>
+      </c>
+      <c r="F14" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="46">
-        <v>6779</v>
-      </c>
-      <c r="D11" s="46" t="s">
+      <c r="G14" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="46">
+      <c r="H14" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="L14" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="M14" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="N14" s="32">
+        <v>2</v>
+      </c>
+      <c r="O14" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="P14" s="32">
+        <v>46</v>
+      </c>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="T14" s="34"/>
+    </row>
+    <row r="15" spans="1:20" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="23">
+        <v>6999</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="23">
+        <v>8</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="M15" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+    </row>
+    <row r="16" spans="1:20" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="L16" s="21"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+    </row>
+    <row r="17" spans="1:20" s="26" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="26">
+        <v>5999</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="26">
         <v>16</v>
       </c>
-      <c r="F11" s="46" t="s">
+      <c r="F17" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="J11" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="K11" s="46">
-        <v>25</v>
-      </c>
-      <c r="L11" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="M11" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="N11" s="46">
-        <v>3.4</v>
-      </c>
-      <c r="O11" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="P11" s="46">
-        <v>55</v>
-      </c>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="S11" s="48" t="s">
-        <v>177</v>
-      </c>
-      <c r="T11" s="48"/>
-    </row>
-    <row r="12" spans="1:20" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="C12" s="26">
-        <v>5679</v>
-      </c>
-      <c r="D12" s="26" t="s">
+      <c r="G17" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="M17" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="N17" s="26">
+        <v>2</v>
+      </c>
+      <c r="O17" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q17" s="27">
+        <v>43618</v>
+      </c>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="T17" s="28"/>
+    </row>
+    <row r="18" spans="1:20" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="29">
+        <v>6199</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="29">
+        <v>8</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="K18" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="L18" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="N18" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="O18" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+    </row>
+    <row r="19" spans="1:20" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="39">
+        <v>6799</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="39">
+        <v>16</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="26">
+      <c r="H19" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="J19" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="L19" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="N19" s="39">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="T19" s="41"/>
+    </row>
+    <row r="20" spans="1:20" s="29" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="29">
         <v>8</v>
       </c>
-      <c r="F12" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="K12" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="L12" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="M12" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="N12" s="26">
-        <v>2.7</v>
-      </c>
-      <c r="O12" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="P12" s="26">
-        <v>62</v>
-      </c>
-      <c r="Q12" s="27">
-        <v>43588</v>
-      </c>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-    </row>
-    <row r="13" spans="1:20" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="45"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-    </row>
-    <row r="14" spans="1:20" s="35" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="35">
-        <v>6799</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" s="35">
-        <v>16</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="L14" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="M14" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="N14" s="35">
-        <v>2</v>
-      </c>
-      <c r="O14" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="P14" s="35">
-        <v>46</v>
-      </c>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="T14" s="37"/>
-    </row>
-    <row r="15" spans="1:20" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" s="26">
-        <v>6999</v>
-      </c>
-      <c r="D15" s="26" t="s">
+      <c r="F20" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="26">
-        <v>8</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="L15" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="M15" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-    </row>
-    <row r="16" spans="1:20" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="L16" s="24"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-    </row>
-    <row r="17" spans="1:20" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="29">
-        <v>5999</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="E17" s="29">
-        <v>16</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="I17" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="J17" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="K17" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="L17" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="M17" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="N17" s="29">
-        <v>2</v>
-      </c>
-      <c r="O17" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q17" s="30">
-        <v>43618</v>
-      </c>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="T17" s="31"/>
-    </row>
-    <row r="18" spans="1:20" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C18" s="32">
-        <v>6199</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="32">
-        <v>8</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="J18" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="K18" s="32" t="s">
+      <c r="H20" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="J20" s="29">
+        <v>17.3</v>
+      </c>
+      <c r="K20" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="M20" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="N20" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="O20" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="P20" s="29">
+        <v>43</v>
+      </c>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="L18" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="M18" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="N18" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="O18" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-    </row>
-    <row r="19" spans="1:20" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="42" t="s">
-        <v>178</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" s="42">
-        <v>6799</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="42">
-        <v>16</v>
-      </c>
-      <c r="F19" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="J19" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="L19" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="N19" s="42">
-        <v>4</v>
-      </c>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="44" t="s">
-        <v>179</v>
-      </c>
-      <c r="T19" s="44"/>
-    </row>
-    <row r="20" spans="1:20" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="32">
-        <v>8</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="J20" s="32">
-        <v>17.3</v>
-      </c>
-      <c r="K20" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="M20" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="N20" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="O20" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="P20" s="32">
-        <v>43</v>
-      </c>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="T20" s="34"/>
+      <c r="T20" s="31"/>
     </row>
     <row r="21" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C21" s="2">
@@ -2386,104 +2485,104 @@
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
     </row>
-    <row r="23" spans="1:20" s="29" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="38" t="s">
+    <row r="23" spans="1:20" s="26" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="26">
+        <v>6059</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="26">
+        <v>8</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="29">
-        <v>6059</v>
-      </c>
-      <c r="D23" s="29" t="s">
+      <c r="K23" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="L23" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="M23" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="N23" s="26">
+        <v>1.82</v>
+      </c>
+      <c r="O23" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="29">
-        <v>8</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="I23" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="J23" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="K23" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="L23" s="29" t="s">
+      <c r="P23" s="26">
+        <v>46</v>
+      </c>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="M23" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="N23" s="29">
-        <v>1.82</v>
-      </c>
-      <c r="O23" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="P23" s="29">
-        <v>46</v>
-      </c>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="S23" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="T23" s="40" t="s">
-        <v>93</v>
+      <c r="S23" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="T23" s="37" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C24" s="2">
         <v>7299</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" s="2">
         <v>8</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>45</v>
+        <v>151</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L24" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M24" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="Q24" s="3"/>
       <c r="R24" s="9"/>
       <c r="S24" s="9" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="T24" s="9"/>
     </row>
@@ -2495,16 +2594,16 @@
     </row>
     <row r="26" spans="1:20" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C26" s="2">
         <v>5525</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E26" s="2">
         <v>8</v>
@@ -2516,48 +2615,48 @@
         <v>21</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="N26" s="2">
         <v>2.7</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q26" s="3">
         <v>43588</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="S26" s="9" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C27" s="2">
         <v>6499</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E27" s="2">
         <v>8</v>
@@ -2569,27 +2668,27 @@
         <v>21</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="Q27" s="3"/>
       <c r="R27" s="9"/>
       <c r="S27" s="9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="T27" s="9"/>
     </row>
     <row r="28" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C28" s="2">
         <v>5999</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E28" s="2">
         <v>8</v>
@@ -2601,16 +2700,16 @@
         <v>21</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="N28" s="2">
         <v>2.35</v>
@@ -2618,7 +2717,7 @@
       <c r="Q28" s="3"/>
       <c r="R28" s="9"/>
       <c r="S28" s="9" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="T28" s="9"/>
     </row>
@@ -2636,43 +2735,43 @@
     </row>
     <row r="31" spans="1:20" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C31" s="2">
         <v>5999</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="N31" s="2">
         <v>2.2999999999999998</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="P31" s="2">
         <v>52</v>
@@ -2681,19 +2780,19 @@
         <v>43588</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="S31" s="9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="T31" s="19" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="20" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C32" s="2">
         <v>6099</v>
@@ -2705,25 +2804,25 @@
     </row>
     <row r="33" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C33" s="2">
         <v>6699</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J33" s="2">
         <v>17.3</v>
@@ -2732,7 +2831,7 @@
         <v>25</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N33" s="2">
         <v>2.75</v>
@@ -2740,7 +2839,7 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="9"/>
       <c r="S33" s="9" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="T33" s="9"/>
     </row>
@@ -2749,22 +2848,22 @@
         <v>6699</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E34" s="2">
         <v>8</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K34" s="2">
         <v>24</v>
@@ -2776,7 +2875,7 @@
     </row>
     <row r="35" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="Q35" s="3"/>
       <c r="R35" s="9"/>
@@ -2791,16 +2890,16 @@
     </row>
     <row r="37" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C37" s="2">
         <v>6299</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E37" s="2">
         <v>8</v>
@@ -2812,13 +2911,13 @@
         <v>21</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="N37" s="2">
         <v>2.2999999999999998</v>
@@ -2826,7 +2925,7 @@
       <c r="Q37" s="3"/>
       <c r="R37" s="9"/>
       <c r="S37" s="9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="T37" s="9"/>
     </row>
@@ -2836,44 +2935,50 @@
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
     </row>
-    <row r="39" spans="1:20" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="C39" s="29">
-        <v>6199</v>
+    <row r="39" spans="1:20" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="C39" s="26">
+        <v>6299</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E39" s="29">
+        <v>57</v>
+      </c>
+      <c r="E39" s="26">
         <v>8</v>
       </c>
-      <c r="F39" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="29" t="s">
+      <c r="F39" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="G39" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="H39" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="I39" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="J39" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="O39" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="31"/>
-      <c r="T39" s="31"/>
+      <c r="H39" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I39" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="J39" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="N39" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="O39" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="28"/>
     </row>
     <row r="40" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q40" s="3"/>
@@ -2882,15 +2987,101 @@
       <c r="T40" s="9"/>
     </row>
     <row r="41" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" s="2">
+        <v>5999</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E41" s="2">
+        <v>8</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="J41" s="2">
+        <v>15.6</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="N41" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="P41" s="2">
+        <v>46</v>
+      </c>
       <c r="Q41" s="3"/>
       <c r="R41" s="9"/>
       <c r="S41" s="9"/>
       <c r="T41" s="9"/>
     </row>
     <row r="42" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C42" s="2">
+        <v>6499</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="2">
+        <v>8</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G42" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="I42" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="N42" s="2">
+        <v>2.35</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="P42" s="2">
+        <v>46</v>
+      </c>
       <c r="Q42" s="3"/>
       <c r="R42" s="9"/>
-      <c r="S42" s="9"/>
+      <c r="S42" s="9" t="s">
+        <v>193</v>
+      </c>
       <c r="T42" s="9"/>
     </row>
     <row r="43" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -3373,7 +3564,7 @@
     <hyperlink ref="T2" r:id="rId1"/>
     <hyperlink ref="T23" r:id="rId2"/>
     <hyperlink ref="T31" r:id="rId3"/>
-    <hyperlink ref="T6" r:id="rId4"/>
+    <hyperlink ref="T7" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>

--- a/note/笔记本.xlsx
+++ b/note/笔记本.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\react\dva\note\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp\www\react\e6-nolive\dva\note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B97C03-6E8F-40B5-A887-C5A6B443C538}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="6285" windowWidth="27600" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="765" yWindow="6285" windowWidth="27600" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="278">
   <si>
     <t>品牌</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -248,10 +247,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>17分钟 2.7-2.1 45W-33W 功耗降 &lt;3G&lt;90度，GPU 76度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>20*</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -304,10 +299,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>低频PWM居多的是同方的Z2Air</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>z7m-kp7z的升级款，存在镜面屏雾面屏混用的情况</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -387,22 +378,6 @@
   </si>
   <si>
     <t>4铜 2出风 2风扇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Z2 Air </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>商务-保守</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -629,22 +604,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>X3 深海泰坦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>256ssd</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>6mm窄边 17.3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>397*266</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>4铜 4出风 2风扇  37W</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -702,10 +665,6 @@
   </si>
   <si>
     <t>不过屏幕是TN屏幕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>G7-CT7VK，这款和机械革命X3同款模具</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1194,11 +1153,51 @@
     <t>27W</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>6mm窄边 17.3 88%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>150W 19V×7.89A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30*397*266</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72% ips 广角雾面 279ni</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单拷CPU温度87，65W，3.3GHz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G7-CT7VK，这款和机械革命X3同款模具，友达，95%的sRGB，67%的NTSC，73%的AdobeRGB，M.2 2280的SSD插槽，9462NGW网卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>！X3 深海泰坦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17分钟 2.7-2.1 45W-33W 功耗降 &lt;3G&lt;90度，GPU 76度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低频PWM居多的是同方的Z2Air，M.2 2280的SSD插槽，M_KEY接口，9462NGW无线网卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>！Z2 Air 商务-保守</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1436,7 +1435,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1616,6 +1615,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1933,19 +1938,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U121"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="16.875" style="38" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
     <col min="5" max="5" width="5.375" customWidth="1"/>
@@ -2003,7 +2008,7 @@
         <v>29</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>25</v>
@@ -2018,7 +2023,7 @@
         <v>45</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="S1" s="27" t="s">
         <v>27</v>
@@ -2029,44 +2034,44 @@
     </row>
     <row r="2" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C2">
         <v>300</v>
       </c>
       <c r="F2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="H2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="J2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="L2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B3" s="38" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C3">
         <v>700</v>
       </c>
       <c r="F3" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="H3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="J3" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B4" s="38" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C4">
         <v>400</v>
@@ -2095,7 +2100,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I5" s="31" t="s">
         <v>38</v>
@@ -2110,13 +2115,13 @@
         <v>30</v>
       </c>
       <c r="M5" s="31" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="N5" s="31" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="O5" s="31" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="P5" s="31">
         <v>46</v>
@@ -2125,21 +2130,21 @@
         <v>0.96</v>
       </c>
       <c r="R5" s="33" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="S5" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U5" s="34" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="19" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="19">
         <v>6779</v>
@@ -2157,7 +2162,7 @@
         <v>42</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J7" s="19" t="s">
         <v>44</v>
@@ -2166,32 +2171,32 @@
         <v>25</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="N7" s="19">
         <v>3.4</v>
       </c>
       <c r="O7" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P7" s="19">
         <v>55</v>
       </c>
       <c r="Q7" s="20"/>
       <c r="R7" s="21" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="S7" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U7" s="21"/>
     </row>
     <row r="8" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B8" s="21" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C8" s="19">
         <v>5889</v>
@@ -2209,16 +2214,16 @@
         <v>21</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J8" s="19" t="s">
         <v>44</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="O8" s="19" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="Q8" s="20">
         <v>43678</v>
@@ -2229,7 +2234,7 @@
     </row>
     <row r="9" spans="1:21" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B9" s="36" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C9" s="16">
         <v>5679</v>
@@ -2241,7 +2246,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>20</v>
@@ -2250,25 +2255,25 @@
         <v>48</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J9" s="16">
         <v>15.6</v>
       </c>
       <c r="K9" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="16" t="s">
-        <v>67</v>
-      </c>
       <c r="M9" s="16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="N9" s="16">
         <v>2.7</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="P9" s="16">
         <v>62</v>
@@ -2299,22 +2304,22 @@
     </row>
     <row r="12" spans="1:21" s="22" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C12" s="22">
         <v>6799</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E12" s="22">
         <v>16</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G12" s="22" t="s">
         <v>42</v>
@@ -2329,33 +2334,33 @@
         <v>28</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L12" s="22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M12" s="22" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="N12" s="22">
         <v>2</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P12" s="22">
         <v>46</v>
       </c>
       <c r="Q12" s="23"/>
       <c r="R12" s="24" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="S12" s="24"/>
       <c r="U12" s="24"/>
     </row>
     <row r="13" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="21" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C13" s="19">
         <v>6999</v>
@@ -2370,16 +2375,16 @@
         <v>13</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J13" s="19" t="s">
         <v>44</v>
       </c>
       <c r="L13" s="42" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q13" s="20"/>
       <c r="R13" s="21"/>
@@ -2388,16 +2393,16 @@
     </row>
     <row r="14" spans="1:21" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="16">
         <v>5999</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E14" s="16">
         <v>16</v>
@@ -2409,7 +2414,7 @@
         <v>21</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I14" s="16" t="s">
         <v>38</v>
@@ -2418,35 +2423,35 @@
         <v>28</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="N14" s="16">
         <v>2</v>
       </c>
       <c r="O14" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q14" s="17">
         <v>43618</v>
       </c>
       <c r="R14" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S14" s="18"/>
       <c r="U14" s="18"/>
     </row>
     <row r="15" spans="1:21" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C15" s="13">
         <v>6199</v>
@@ -2455,34 +2460,34 @@
         <v>53</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>21</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Q15" s="14"/>
       <c r="R15" s="15"/>
@@ -2491,10 +2496,10 @@
     </row>
     <row r="16" spans="1:21" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C16" s="28">
         <v>6799</v>
@@ -2512,20 +2517,20 @@
         <v>42</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L16" s="28" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N16" s="28">
         <v>4</v>
       </c>
       <c r="Q16" s="29"/>
       <c r="R16" s="30" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="S16" s="30"/>
       <c r="U16" s="30"/>
@@ -2551,8 +2556,8 @@
       <c r="A20" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>92</v>
+      <c r="B20" s="60" t="s">
+        <v>277</v>
       </c>
       <c r="C20" s="16">
         <v>6059</v>
@@ -2579,13 +2584,13 @@
         <v>51</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L20" s="16" t="s">
         <v>55</v>
       </c>
       <c r="M20" s="16" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="N20" s="16">
         <v>1.82</v>
@@ -2598,28 +2603,32 @@
       </c>
       <c r="Q20" s="17"/>
       <c r="R20" s="18" t="s">
-        <v>70</v>
+        <v>276</v>
       </c>
       <c r="S20" s="18" t="s">
-        <v>56</v>
+        <v>275</v>
       </c>
       <c r="U20" s="26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B21" s="38" t="s">
-        <v>272</v>
-      </c>
-      <c r="C21">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B21" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C21" s="2">
         <v>7899</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>16</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="61" t="s">
         <v>42</v>
       </c>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="U21" s="49"/>
     </row>
     <row r="22" spans="1:21" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B22" s="7"/>
@@ -2630,16 +2639,16 @@
     </row>
     <row r="23" spans="1:21" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C23" s="16">
         <v>5525</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E23" s="16">
         <v>8</v>
@@ -2654,45 +2663,45 @@
         <v>43</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N23" s="16">
         <v>2.7</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Q23" s="17">
         <v>43588</v>
       </c>
       <c r="R23" s="18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="S23" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="U23" s="26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:21" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B25" s="18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C25" s="16">
         <v>5999</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E25" s="16">
         <v>8</v>
@@ -2707,29 +2716,29 @@
         <v>43</v>
       </c>
       <c r="I25" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="K25" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="J25" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="K25" s="16" t="s">
-        <v>118</v>
-      </c>
       <c r="L25" s="16" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="N25" s="16">
         <v>2.35</v>
       </c>
       <c r="O25" s="16" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="P25" s="16">
         <v>58</v>
       </c>
       <c r="Q25" s="17"/>
       <c r="R25" s="18" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="S25" s="18"/>
       <c r="U25" s="18"/>
@@ -2743,43 +2752,43 @@
     </row>
     <row r="27" spans="1:21" s="16" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="44" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C27" s="16">
         <v>5999</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G27" s="16" t="s">
         <v>21</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J27" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K27" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L27" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="N27" s="16">
         <v>2.2999999999999998</v>
       </c>
       <c r="O27" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P27" s="16">
         <v>52</v>
@@ -2788,19 +2797,19 @@
         <v>43588</v>
       </c>
       <c r="R27" s="18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S27" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U27" s="46" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:21" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="37" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C28" s="2">
         <v>6099</v>
@@ -2812,28 +2821,28 @@
     </row>
     <row r="29" spans="1:21" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B29" s="18" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C29" s="16">
         <v>6999</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E29" s="16">
         <v>8</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G29" s="16" t="s">
         <v>21</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K29" s="16">
         <v>24</v>
@@ -2859,16 +2868,16 @@
     </row>
     <row r="32" spans="1:21" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C32" s="16">
         <v>6299</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E32" s="16">
         <v>8</v>
@@ -2880,20 +2889,20 @@
         <v>21</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J32" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N32" s="16">
         <v>2.2999999999999998</v>
       </c>
       <c r="Q32" s="17"/>
       <c r="R32" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="S32" s="18"/>
       <c r="U32" s="18"/>
@@ -2922,25 +2931,25 @@
     </row>
     <row r="34" spans="1:21" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B34" s="18" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C34" s="16">
         <v>7099</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E34" s="16">
         <v>8</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="G34" s="16" t="s">
         <v>21</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="Q34" s="17"/>
       <c r="R34" s="18"/>
@@ -2977,7 +2986,7 @@
         <v>11</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D38" s="19" t="s">
         <v>12</v>
@@ -2998,7 +3007,7 @@
         <v>37</v>
       </c>
       <c r="J38" s="19" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="L38" s="19" t="s">
         <v>33</v>
@@ -3007,14 +3016,14 @@
         <v>31</v>
       </c>
       <c r="O38" s="19" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="P38" s="19">
         <v>47</v>
       </c>
       <c r="Q38" s="20"/>
       <c r="R38" s="21" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="S38" s="21"/>
       <c r="U38" s="40" t="s">
@@ -3050,13 +3059,13 @@
         <v>47</v>
       </c>
       <c r="M39" s="19" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="N39" s="19" t="s">
         <v>31</v>
       </c>
       <c r="O39" s="19" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="Q39" s="20">
         <v>43647</v>
@@ -3067,13 +3076,13 @@
     </row>
     <row r="40" spans="1:21" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B40" s="18" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C40" s="16">
         <v>4599</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E40" s="16">
         <v>8</v>
@@ -3085,7 +3094,7 @@
         <v>46</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I40" s="16" t="s">
         <v>38</v>
@@ -3094,7 +3103,7 @@
         <v>15.6</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="P40" s="16">
         <v>41</v>
@@ -3106,7 +3115,7 @@
     </row>
     <row r="41" spans="1:21" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B41" s="18" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C41" s="16">
         <v>7089</v>
@@ -3127,16 +3136,16 @@
         <v>22</v>
       </c>
       <c r="J41" s="16" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="K41" s="16" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="L41" s="16" t="s">
         <v>47</v>
       </c>
       <c r="N41" s="16" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="Q41" s="17"/>
       <c r="R41" s="18"/>
@@ -3164,16 +3173,16 @@
     </row>
     <row r="44" spans="1:21" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="52" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B44" s="53" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C44" s="52">
         <v>6699</v>
       </c>
       <c r="D44" s="52" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E44" s="52">
         <v>8</v>
@@ -3185,7 +3194,7 @@
         <v>21</v>
       </c>
       <c r="H44" s="52" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J44" s="52">
         <v>17.3</v>
@@ -3194,14 +3203,14 @@
         <v>25</v>
       </c>
       <c r="L44" s="52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N44" s="52">
         <v>2.75</v>
       </c>
       <c r="Q44" s="54"/>
       <c r="R44" s="55" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="S44" s="55"/>
       <c r="U44" s="55"/>
@@ -3228,16 +3237,16 @@
     </row>
     <row r="47" spans="1:21" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C47" s="13">
         <v>6499</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E47" s="13">
         <v>8</v>
@@ -3252,11 +3261,11 @@
         <v>43</v>
       </c>
       <c r="J47" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Q47" s="14"/>
       <c r="R47" s="15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="S47" s="15"/>
       <c r="U47" s="15"/>
@@ -3268,12 +3277,12 @@
       <c r="S48" s="7"/>
       <c r="U48" s="7"/>
     </row>
-    <row r="49" spans="1:21" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>142</v>
+        <v>274</v>
       </c>
       <c r="C49" s="13">
         <v>7299</v>
@@ -3285,112 +3294,142 @@
         <v>8</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G49" s="39" t="s">
         <v>42</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>52</v>
+        <v>271</v>
       </c>
       <c r="J49" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="K49" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="L49" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="M49" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="K49" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="L49" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="M49" s="13" t="s">
-        <v>150</v>
+      <c r="N49" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="O49" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="P49" s="13">
+        <v>47</v>
       </c>
       <c r="Q49" s="14"/>
       <c r="R49" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="S49" s="15"/>
+        <v>273</v>
+      </c>
+      <c r="S49" s="15" t="s">
+        <v>272</v>
+      </c>
       <c r="U49" s="15"/>
     </row>
-    <row r="50" spans="1:21" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B50" s="15"/>
-      <c r="G50" s="39"/>
-      <c r="Q50" s="14"/>
-      <c r="R50" s="15"/>
-      <c r="S50" s="15"/>
-      <c r="U50" s="15"/>
-    </row>
-    <row r="51" spans="1:21" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B51" s="30"/>
-      <c r="G51" s="58"/>
-      <c r="Q51" s="29"/>
-      <c r="R51" s="30"/>
-      <c r="S51" s="30"/>
-      <c r="U51" s="30"/>
-    </row>
-    <row r="52" spans="1:21" s="13" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="13" t="s">
-        <v>220</v>
-      </c>
+    <row r="50" spans="1:21" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B50" s="30"/>
+      <c r="G50" s="58"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="30"/>
+      <c r="S50" s="30"/>
+      <c r="U50" s="30"/>
+    </row>
+    <row r="51" spans="1:21" s="13" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" s="59">
+        <v>43693</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J51" s="13">
+        <v>17.3</v>
+      </c>
+      <c r="K51" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="L51" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="M51" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="N51" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="O51" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="P51" s="13">
+        <v>43</v>
+      </c>
+      <c r="Q51" s="14">
+        <v>43586</v>
+      </c>
+      <c r="R51" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="S51" s="15"/>
+      <c r="U51" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E52" s="59">
-        <v>43693</v>
+        <v>241</v>
+      </c>
+      <c r="C52" s="13">
+        <v>8199</v>
+      </c>
+      <c r="E52" s="13">
+        <v>8</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>253</v>
+        <v>13</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>42</v>
+        <v>242</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J52" s="13">
         <v>17.3</v>
       </c>
-      <c r="K52" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="L52" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="M52" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="N52" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="O52" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="P52" s="13">
-        <v>43</v>
-      </c>
-      <c r="Q52" s="14">
-        <v>43586</v>
-      </c>
-      <c r="R52" s="15" t="s">
-        <v>203</v>
-      </c>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="15"/>
       <c r="S52" s="15"/>
-      <c r="U52" s="15" t="s">
-        <v>202</v>
-      </c>
+      <c r="U52" s="15"/>
     </row>
     <row r="53" spans="1:21" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="15" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C53" s="13">
-        <v>8199</v>
+        <v>8299</v>
       </c>
       <c r="E53" s="13">
         <v>8</v>
@@ -3399,10 +3438,10 @@
         <v>13</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>249</v>
+        <v>42</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J53" s="13">
         <v>17.3</v>
@@ -3412,208 +3451,188 @@
       <c r="S53" s="15"/>
       <c r="U53" s="15"/>
     </row>
-    <row r="54" spans="1:21" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="15" t="s">
+    <row r="54" spans="1:21" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B54" s="7"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="U54" s="7"/>
+    </row>
+    <row r="55" spans="1:21" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="C54" s="13">
-        <v>8299</v>
-      </c>
-      <c r="E54" s="13">
+      <c r="B55" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="C55" s="39">
+        <v>7399</v>
+      </c>
+      <c r="D55" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="E55" s="39">
         <v>8</v>
       </c>
-      <c r="F54" s="13" t="s">
+      <c r="F55" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="G55" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="J55" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="K55" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="L55" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="N55" s="39">
+        <v>2.5</v>
+      </c>
+      <c r="Q55" s="50"/>
+      <c r="R55" s="51"/>
+      <c r="S55" s="51"/>
+      <c r="U55" s="51"/>
+    </row>
+    <row r="56" spans="1:21" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B56" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C56" s="13">
+        <v>7099</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q56" s="14"/>
+      <c r="R56" s="15"/>
+      <c r="S56" s="15"/>
+      <c r="U56" s="15"/>
+    </row>
+    <row r="57" spans="1:21" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B57" s="7"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="U57" s="7"/>
+    </row>
+    <row r="58" spans="1:21" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" s="13">
+        <v>6499</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E58" s="13">
+        <v>8</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J58" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="K58" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="L58" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="N58" s="13">
+        <v>2.35</v>
+      </c>
+      <c r="O58" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="P58" s="13">
+        <v>46</v>
+      </c>
+      <c r="Q58" s="14"/>
+      <c r="R58" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="S58" s="15"/>
+      <c r="U58" s="15"/>
+    </row>
+    <row r="59" spans="1:21" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B59" s="7"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="U59" s="7"/>
+    </row>
+    <row r="60" spans="1:21" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C60" s="13">
+        <v>6599</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E60" s="13">
+        <v>8</v>
+      </c>
+      <c r="F60" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G54" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H54" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="J54" s="13">
-        <v>17.3</v>
-      </c>
-      <c r="Q54" s="14"/>
-      <c r="R54" s="15"/>
-      <c r="S54" s="15"/>
-      <c r="U54" s="15"/>
-    </row>
-    <row r="55" spans="1:21" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B55" s="7"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="7"/>
-      <c r="S55" s="7"/>
-      <c r="U55" s="7"/>
-    </row>
-    <row r="56" spans="1:21" s="39" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="B56" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="C56" s="39">
-        <v>7399</v>
-      </c>
-      <c r="D56" s="39" t="s">
-        <v>222</v>
-      </c>
-      <c r="E56" s="39">
-        <v>8</v>
-      </c>
-      <c r="F56" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="G56" s="39" t="s">
+      <c r="G60" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H56" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="J56" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="K56" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="L56" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="N56" s="39">
-        <v>2.5</v>
-      </c>
-      <c r="Q56" s="50"/>
-      <c r="R56" s="51"/>
-      <c r="S56" s="51"/>
-      <c r="U56" s="51"/>
-    </row>
-    <row r="57" spans="1:21" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B57" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="C57" s="13">
-        <v>7099</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="H57" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q57" s="14"/>
-      <c r="R57" s="15"/>
-      <c r="S57" s="15"/>
-      <c r="U57" s="15"/>
-    </row>
-    <row r="58" spans="1:21" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B58" s="7"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="7"/>
-      <c r="S58" s="7"/>
-      <c r="U58" s="7"/>
-    </row>
-    <row r="59" spans="1:21" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="C59" s="13">
-        <v>6499</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E59" s="13">
-        <v>8</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="G59" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H59" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="I59" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="J59" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="K59" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="L59" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="N59" s="13">
-        <v>2.35</v>
-      </c>
-      <c r="O59" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="P59" s="13">
-        <v>46</v>
-      </c>
-      <c r="Q59" s="14"/>
-      <c r="R59" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="S59" s="15"/>
-      <c r="U59" s="15"/>
-    </row>
-    <row r="60" spans="1:21" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B60" s="7"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="7"/>
-      <c r="S60" s="7"/>
-      <c r="U60" s="7"/>
-    </row>
-    <row r="61" spans="1:21" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="C61" s="13">
-        <v>6599</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="E61" s="13">
-        <v>8</v>
-      </c>
-      <c r="F61" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H61" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="I61" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="J61" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="L61" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="N61" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q61" s="14"/>
-      <c r="R61" s="15"/>
-      <c r="S61" s="15"/>
-      <c r="U61" s="15"/>
+      <c r="H60" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J60" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="L60" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="N60" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q60" s="14"/>
+      <c r="R60" s="15"/>
+      <c r="S60" s="15"/>
+      <c r="U60" s="15"/>
+    </row>
+    <row r="61" spans="1:21" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B61" s="7"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
+      <c r="U61" s="7"/>
     </row>
     <row r="62" spans="1:21" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B62" s="7"/>
@@ -3629,86 +3648,124 @@
       <c r="S63" s="7"/>
       <c r="U63" s="7"/>
     </row>
-    <row r="64" spans="1:21" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B64" s="7"/>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="7"/>
-      <c r="S64" s="7"/>
-      <c r="U64" s="7"/>
-    </row>
-    <row r="65" spans="1:21" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="16" t="s">
-        <v>256</v>
-      </c>
+    <row r="64" spans="1:21" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A64" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C64" s="16">
+        <v>6299</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E64" s="16">
+        <v>8</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H64" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I64" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J64" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="N64" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="O64" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q64" s="17"/>
+      <c r="R64" s="18"/>
+      <c r="S64" s="18"/>
+      <c r="U64" s="18"/>
+    </row>
+    <row r="65" spans="1:21" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B65" s="18" t="s">
-        <v>186</v>
+        <v>226</v>
       </c>
       <c r="C65" s="16">
-        <v>6299</v>
+        <v>7399</v>
       </c>
       <c r="D65" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E65" s="16">
-        <v>8</v>
-      </c>
       <c r="F65" s="16" t="s">
-        <v>187</v>
+        <v>13</v>
       </c>
       <c r="G65" s="16" t="s">
         <v>21</v>
       </c>
       <c r="H65" s="16" t="s">
-        <v>43</v>
+        <v>228</v>
       </c>
       <c r="I65" s="16" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="J65" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="L65" s="2" t="s">
-        <v>189</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="L65" s="2"/>
       <c r="N65" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="O65" s="16" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="Q65" s="17"/>
       <c r="R65" s="18"/>
       <c r="S65" s="18"/>
       <c r="U65" s="18"/>
     </row>
-    <row r="66" spans="1:21" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B66" s="18" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C66" s="16">
-        <v>7399</v>
+        <v>8199</v>
       </c>
       <c r="D66" s="19" t="s">
         <v>53</v>
       </c>
+      <c r="E66" s="16">
+        <v>8</v>
+      </c>
       <c r="F66" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G66" s="16" t="s">
-        <v>21</v>
+      <c r="G66" s="39" t="s">
+        <v>42</v>
       </c>
       <c r="H66" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="I66" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="J66" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="K66" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="L66" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="I66" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="J66" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="L66" s="2"/>
-      <c r="N66" s="16" t="s">
-        <v>236</v>
+      <c r="N66" s="16">
+        <v>2</v>
+      </c>
+      <c r="P66" s="16">
+        <v>64</v>
       </c>
       <c r="Q66" s="17"/>
       <c r="R66" s="18"/>
@@ -3716,11 +3773,11 @@
       <c r="U66" s="18"/>
     </row>
     <row r="67" spans="1:21" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B67" s="18" t="s">
-        <v>241</v>
+      <c r="B67" s="57" t="s">
+        <v>247</v>
       </c>
       <c r="C67" s="16">
-        <v>8199</v>
+        <v>6699</v>
       </c>
       <c r="D67" s="19" t="s">
         <v>53</v>
@@ -3731,171 +3788,133 @@
       <c r="F67" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G67" s="39" t="s">
-        <v>42</v>
+      <c r="G67" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="I67" s="16" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="J67" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="K67" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="L67" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
+      </c>
+      <c r="K67" s="16">
+        <v>19</v>
+      </c>
+      <c r="L67" s="16" t="s">
+        <v>239</v>
       </c>
       <c r="N67" s="16">
         <v>2</v>
       </c>
       <c r="P67" s="16">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="Q67" s="17"/>
       <c r="R67" s="18"/>
       <c r="S67" s="18"/>
       <c r="U67" s="18"/>
     </row>
-    <row r="68" spans="1:21" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B68" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="C68" s="16">
-        <v>6699</v>
-      </c>
-      <c r="D68" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E68" s="16">
+    <row r="69" spans="1:21" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A69" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C69" s="16">
+        <v>5999</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="E69" s="16">
         <v>8</v>
       </c>
-      <c r="F68" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H68" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="J68" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="K68" s="16">
-        <v>19</v>
-      </c>
-      <c r="L68" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="N68" s="16">
+      <c r="F69" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="G69" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H69" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="J69" s="16">
+        <v>15.6</v>
+      </c>
+      <c r="K69" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="L69" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="N69" s="16">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O69" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="P69" s="16">
+        <v>46</v>
+      </c>
+      <c r="Q69" s="17"/>
+      <c r="R69" s="18"/>
+      <c r="S69" s="18"/>
+      <c r="U69" s="18"/>
+    </row>
+    <row r="70" spans="1:21" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B70" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C70" s="2">
+        <v>6999</v>
+      </c>
+      <c r="D70" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E70" s="2">
+        <v>8</v>
+      </c>
+      <c r="F70" s="56" t="s">
+        <v>223</v>
+      </c>
+      <c r="G70" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="H70" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="J70" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L70" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="N70" s="2">
         <v>2</v>
       </c>
-      <c r="P68" s="16">
-        <v>51</v>
-      </c>
-      <c r="Q68" s="17"/>
-      <c r="R68" s="18"/>
-      <c r="S68" s="18"/>
-      <c r="U68" s="18"/>
-    </row>
-    <row r="70" spans="1:21" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="B70" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="C70" s="16">
-        <v>5999</v>
-      </c>
-      <c r="D70" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="E70" s="16">
-        <v>8</v>
-      </c>
-      <c r="F70" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="G70" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H70" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="J70" s="16">
-        <v>15.6</v>
-      </c>
-      <c r="K70" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="L70" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="N70" s="16">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="O70" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="P70" s="16">
+      <c r="O70" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="P70" s="2">
         <v>46</v>
       </c>
-      <c r="Q70" s="17"/>
-      <c r="R70" s="18"/>
-      <c r="S70" s="18"/>
-      <c r="U70" s="18"/>
+      <c r="Q70" s="48"/>
+      <c r="R70" s="49" t="s">
+        <v>221</v>
+      </c>
+      <c r="S70" s="49"/>
+      <c r="U70" s="49"/>
     </row>
     <row r="71" spans="1:21" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B71" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="C71" s="2">
-        <v>6999</v>
-      </c>
-      <c r="D71" s="56" t="s">
-        <v>174</v>
-      </c>
-      <c r="E71" s="2">
-        <v>8</v>
-      </c>
-      <c r="F71" s="56" t="s">
-        <v>230</v>
-      </c>
-      <c r="G71" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="H71" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="J71" s="56" t="s">
-        <v>227</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="L71" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="N71" s="2">
-        <v>2</v>
-      </c>
-      <c r="O71" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="P71" s="2">
-        <v>46</v>
-      </c>
-      <c r="Q71" s="48"/>
-      <c r="R71" s="49" t="s">
-        <v>228</v>
-      </c>
-      <c r="S71" s="49"/>
-      <c r="U71" s="49"/>
+      <c r="B71" s="7"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="7"/>
+      <c r="S71" s="7"/>
+      <c r="U71" s="7"/>
     </row>
     <row r="72" spans="1:21" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B72" s="7"/>
@@ -4240,20 +4259,13 @@
       <c r="S120" s="7"/>
       <c r="U120" s="7"/>
     </row>
-    <row r="121" spans="2:21" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B121" s="7"/>
-      <c r="Q121" s="3"/>
-      <c r="R121" s="7"/>
-      <c r="S121" s="7"/>
-      <c r="U121" s="7"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="U38" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="U20" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="U27" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="U5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="U38" r:id="rId1"/>
+    <hyperlink ref="U20" r:id="rId2"/>
+    <hyperlink ref="U27" r:id="rId3"/>
+    <hyperlink ref="U5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>

--- a/note/笔记本.xlsx
+++ b/note/笔记本.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\react\dva\note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D155B3C-2A01-4F12-B3ED-68F5EEE26410}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8DDB00-2BEA-4E28-BCD2-280FD65C09D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="75" yWindow="7680" windowWidth="28530" windowHeight="7515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="215">
   <si>
     <t>品牌</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -300,10 +300,6 @@
   </si>
   <si>
     <t>24*360*256</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>150W</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -788,18 +784,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>y7000p-2019</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>72% ips  DC 300nit 144</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1T ssd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>6mm窄边 17.3 88%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -829,10 +813,6 @@
   </si>
   <si>
     <t>低频PWM居多的是同方的Z2Air，M.2 2280的SSD插槽，M_KEY接口，9462NGW无线网卡。17分钟 2.7-2.1 45W-33W 功耗降 &lt;3G&lt;90度，GPU 76度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cup 频率不如暗影精灵5，网卡固态内存好品牌，噪音低，商务。中正评测 5699元.2.8-80-30w，gpu1700M-70</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -968,6 +948,18 @@
   </si>
   <si>
     <t>5铜 4出风 2风扇  37W</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>170W</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cup 频率不如暗影精灵5，网卡固态内存好品牌，噪音低，商务。中正评测 5699元.2.8-80-30w，gpu1700M-70,9560</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷电,9560</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1728,10 +1720,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="O41" sqref="O41"/>
+      <selection pane="bottomLeft" activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1795,7 +1787,7 @@
         <v>26</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>23</v>
@@ -1810,7 +1802,7 @@
         <v>40</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S1" s="11" t="s">
         <v>14</v>
@@ -1818,44 +1810,44 @@
     </row>
     <row r="2" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B2" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C2">
         <v>300</v>
       </c>
       <c r="F2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B3" s="37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C3">
         <v>700</v>
       </c>
       <c r="F3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B4" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4">
         <v>400</v>
@@ -1884,7 +1876,7 @@
         <v>19</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="I5" s="30" t="s">
         <v>34</v>
@@ -1899,13 +1891,13 @@
         <v>27</v>
       </c>
       <c r="M5" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N5" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="O5" s="30" t="s">
         <v>124</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>125</v>
       </c>
       <c r="P5" s="30">
         <v>46</v>
@@ -1914,15 +1906,15 @@
         <v>0.96</v>
       </c>
       <c r="R5" s="32" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="S5" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="19" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>50</v>
@@ -1955,7 +1947,7 @@
         <v>53</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N7" s="19">
         <v>3.4</v>
@@ -1968,13 +1960,13 @@
       </c>
       <c r="Q7" s="20"/>
       <c r="R7" s="21" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B8" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C8" s="19">
         <v>5889</v>
@@ -1998,10 +1990,10 @@
         <v>39</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O8" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q8" s="20">
         <v>43678</v>
@@ -2011,7 +2003,7 @@
     </row>
     <row r="9" spans="1:19" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B9" s="35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C9" s="16">
         <v>5679</v>
@@ -2044,13 +2036,13 @@
         <v>57</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N9" s="16">
         <v>2.7</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P9" s="16">
         <v>62</v>
@@ -2063,16 +2055,16 @@
     </row>
     <row r="10" spans="1:19" s="22" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="22">
         <v>6799</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" s="22">
         <v>16</v>
@@ -2093,32 +2085,32 @@
         <v>25</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L10" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M10" s="22" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="N10" s="22">
         <v>2</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P10" s="22">
         <v>46</v>
       </c>
       <c r="Q10" s="23"/>
       <c r="R10" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S10" s="24"/>
     </row>
     <row r="11" spans="1:19" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B11" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C11" s="19">
         <v>6999</v>
@@ -2133,17 +2125,17 @@
         <v>12</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H11" s="21"/>
       <c r="J11" s="19" t="s">
         <v>39</v>
       </c>
       <c r="L11" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q11" s="20"/>
       <c r="R11" s="21"/>
@@ -2151,7 +2143,7 @@
     </row>
     <row r="12" spans="1:19" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>58</v>
@@ -2160,7 +2152,7 @@
         <v>5999</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E12" s="16">
         <v>16</v>
@@ -2187,7 +2179,7 @@
         <v>53</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N12" s="16">
         <v>2</v>
@@ -2205,10 +2197,10 @@
     </row>
     <row r="13" spans="1:19" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13" s="27">
         <v>6799</v>
@@ -2226,20 +2218,20 @@
         <v>37</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L13" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N13" s="27">
         <v>4</v>
       </c>
       <c r="Q13" s="28"/>
       <c r="R13" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S13" s="29"/>
     </row>
@@ -2255,7 +2247,7 @@
         <v>43</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C16" s="16">
         <v>6059</v>
@@ -2288,7 +2280,7 @@
         <v>48</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N16" s="16">
         <v>1.82</v>
@@ -2301,10 +2293,10 @@
       </c>
       <c r="Q16" s="17"/>
       <c r="R16" s="18" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="S16" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -2327,7 +2319,7 @@
         <v>62</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C19" s="16">
         <v>5525</v>
@@ -2345,7 +2337,7 @@
         <v>20</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="J19" s="16" t="s">
         <v>67</v>
@@ -2360,19 +2352,19 @@
         <v>2.7</v>
       </c>
       <c r="O19" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P19" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q19" s="17">
         <v>43588</v>
       </c>
       <c r="R19" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S19" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:20" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -2391,28 +2383,28 @@
     </row>
     <row r="22" spans="1:20" s="16" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" s="16">
-        <v>5999</v>
+        <v>5699</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>63</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G22" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="J22" s="16" t="s">
         <v>68</v>
@@ -2421,13 +2413,13 @@
         <v>69</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="N22" s="16">
         <v>2.2999999999999998</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>70</v>
+        <v>207</v>
       </c>
       <c r="P22" s="16">
         <v>52</v>
@@ -2436,16 +2428,16 @@
         <v>43588</v>
       </c>
       <c r="R22" s="18" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="S22" s="43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:20" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C23" s="2">
         <v>6099</v>
@@ -2457,25 +2449,25 @@
     </row>
     <row r="24" spans="1:20" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B24" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C24" s="16">
         <v>6999</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E24" s="16">
         <v>8</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G24" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J24" s="16" t="s">
         <v>68</v>
@@ -2483,12 +2475,26 @@
       <c r="K24" s="16">
         <v>24</v>
       </c>
+      <c r="N24" s="16">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P24" s="16">
+        <v>66</v>
+      </c>
       <c r="Q24" s="17"/>
-      <c r="R24" s="18"/>
+      <c r="R24" s="18" t="s">
+        <v>214</v>
+      </c>
       <c r="S24" s="18"/>
     </row>
     <row r="25" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B25" s="7"/>
+      <c r="C25" s="2">
+        <v>6299</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>63</v>
+      </c>
       <c r="H25" s="7"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="7"/>
@@ -2503,13 +2509,13 @@
     </row>
     <row r="27" spans="1:20" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="18" t="s">
-        <v>91</v>
-      </c>
       <c r="C27" s="16">
-        <v>6299</v>
+        <v>6099</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>63</v>
@@ -2524,27 +2530,33 @@
         <v>20</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J27" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K27" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N27" s="16">
         <v>2.2999999999999998</v>
       </c>
+      <c r="O27" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="P27" s="16">
+        <v>53</v>
+      </c>
       <c r="Q27" s="17"/>
       <c r="R27" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S27" s="18"/>
     </row>
     <row r="28" spans="1:20" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B28" s="18"/>
       <c r="C28" s="16">
-        <v>7299</v>
+        <v>6999</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>46</v>
@@ -2564,27 +2576,8 @@
       <c r="S28" s="18"/>
     </row>
     <row r="29" spans="1:20" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B29" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="C29" s="16">
-        <v>7099</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="16">
-        <v>8</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>176</v>
-      </c>
+      <c r="B29" s="18"/>
+      <c r="H29" s="18"/>
       <c r="Q29" s="17"/>
       <c r="R29" s="18"/>
       <c r="S29" s="18"/>
@@ -2602,7 +2595,7 @@
       <c r="Q31" s="3"/>
       <c r="R31" s="7"/>
       <c r="S31" s="12" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="19" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
@@ -2610,10 +2603,10 @@
         <v>10</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>11</v>
@@ -2634,7 +2627,7 @@
         <v>33</v>
       </c>
       <c r="J32" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L32" s="19" t="s">
         <v>30</v>
@@ -2643,14 +2636,14 @@
         <v>28</v>
       </c>
       <c r="O32" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P32" s="19">
         <v>47</v>
       </c>
       <c r="Q32" s="20"/>
       <c r="R32" s="21" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="S32" s="39" t="s">
         <v>15</v>
@@ -2659,7 +2652,7 @@
     </row>
     <row r="33" spans="1:19" s="19" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B33" s="21" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C33" s="19">
         <v>6099</v>
@@ -2677,7 +2670,7 @@
         <v>37</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="J33" s="19" t="s">
         <v>39</v>
@@ -2686,19 +2679,19 @@
         <v>41</v>
       </c>
       <c r="M33" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N33" s="19" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="O33" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q33" s="20">
         <v>43647</v>
       </c>
       <c r="R33" s="58" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="S33" s="21"/>
     </row>
@@ -2721,10 +2714,10 @@
     </row>
     <row r="36" spans="1:19" s="47" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A36" s="47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B36" s="60" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C36" s="47">
         <v>6699</v>
@@ -2742,10 +2735,10 @@
         <v>20</v>
       </c>
       <c r="H36" s="50" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="I36" s="47" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="J36" s="47">
         <v>17.3</v>
@@ -2754,23 +2747,23 @@
         <v>25</v>
       </c>
       <c r="L36" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N36" s="47">
         <v>2.75</v>
       </c>
       <c r="O36" s="47" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="P36" s="47">
         <v>52.5</v>
       </c>
       <c r="Q36" s="49"/>
       <c r="R36" s="50" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="S36" s="50" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:19" s="47" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -2795,10 +2788,10 @@
     </row>
     <row r="39" spans="1:19" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C39" s="27">
         <v>6499</v>
@@ -2819,11 +2812,11 @@
         <v>38</v>
       </c>
       <c r="J39" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q39" s="28"/>
       <c r="R39" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S39" s="29"/>
     </row>
@@ -2836,10 +2829,10 @@
     </row>
     <row r="41" spans="1:19" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C41" s="13">
         <v>7099</v>
@@ -2851,41 +2844,41 @@
         <v>8</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G41" s="38" t="s">
         <v>37</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L41" s="13" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M41" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N41" s="13">
         <v>2.5</v>
       </c>
       <c r="O41" s="13" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P41" s="13">
         <v>47</v>
       </c>
       <c r="Q41" s="14"/>
       <c r="R41" s="15" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="S41" s="15"/>
     </row>
@@ -2899,13 +2892,13 @@
     </row>
     <row r="43" spans="1:19" s="27" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="27" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B43" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" s="27" t="s">
         <v>159</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>160</v>
       </c>
       <c r="D43" s="27" t="s">
         <v>46</v>
@@ -2914,31 +2907,31 @@
         <v>43693</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G43" s="27" t="s">
         <v>37</v>
       </c>
       <c r="H43" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J43" s="27">
         <v>17.3</v>
       </c>
       <c r="K43" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="L43" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="L43" s="27" t="s">
-        <v>141</v>
-      </c>
       <c r="M43" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N43" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O43" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P43" s="27">
         <v>43</v>
@@ -2947,13 +2940,13 @@
         <v>43586</v>
       </c>
       <c r="R43" s="29" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="S43" s="29"/>
     </row>
     <row r="44" spans="1:19" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C44" s="13">
         <v>8199</v>
@@ -2965,10 +2958,10 @@
         <v>12</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J44" s="13">
         <v>17.3</v>
@@ -2979,7 +2972,7 @@
     </row>
     <row r="45" spans="1:19" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C45" s="13">
         <v>8299</v>
@@ -2994,7 +2987,7 @@
         <v>37</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J45" s="13">
         <v>17.3</v>
@@ -3012,16 +3005,16 @@
     </row>
     <row r="47" spans="1:19" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C47" s="27">
         <v>6359</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E47" s="27">
         <v>8</v>
@@ -3033,23 +3026,23 @@
         <v>20</v>
       </c>
       <c r="H47" s="29" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="I47" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J47" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L47" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N47" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q47" s="28"/>
       <c r="R47" s="29" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="S47" s="29"/>
     </row>
@@ -3069,10 +3062,10 @@
     </row>
     <row r="50" spans="1:19" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C50" s="16">
         <v>6299</v>
@@ -3084,7 +3077,7 @@
         <v>8</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G50" s="16" t="s">
         <v>20</v>
@@ -3093,19 +3086,19 @@
         <v>38</v>
       </c>
       <c r="I50" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J50" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="L50" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="L50" s="2" t="s">
+      <c r="N50" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="O50" s="16" t="s">
         <v>133</v>
-      </c>
-      <c r="N50" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="O50" s="16" t="s">
-        <v>134</v>
       </c>
       <c r="Q50" s="17"/>
       <c r="R50" s="18"/>
@@ -3113,7 +3106,7 @@
     </row>
     <row r="51" spans="1:19" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B51" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C51" s="16">
         <v>6699</v>
@@ -3131,16 +3124,16 @@
         <v>20</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J51" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K51" s="16">
         <v>19</v>
       </c>
       <c r="L51" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N51" s="16">
         <v>2</v>

--- a/note/笔记本.xlsx
+++ b/note/笔记本.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\react\dva\note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8DDB00-2BEA-4E28-BCD2-280FD65C09D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7870B3A0-3E0E-4A91-9EC7-437DC664290F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="7680" windowWidth="28530" windowHeight="7515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="885" yWindow="1560" windowWidth="28530" windowHeight="7515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="214">
   <si>
     <t>品牌</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -320,10 +320,6 @@
   </si>
   <si>
     <t>8三星</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4铜 2出风 2风扇</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -443,10 +439,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>关充</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>紫色、白色</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -936,17 +928,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://tieba.baidu.com/p/6148468574</t>
-  </si>
-  <si>
     <t>72% ips lgd 0623 408nits 广角，boe0802a，nv156fhm-n4k，60hz</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>USB2个，1个typeC。3芯。2.7G降频</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>5铜 4出风 2风扇  37W</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -960,6 +945,18 @@
   </si>
   <si>
     <t>雷电,9560</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关充，串联散热</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tieba.baidu.com/p/6148468574  https://post.smzdm.com/p/a78e342l/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB2个，1个typeC。3芯。2.7G降频。CPU最高90℃，之后在80℃波动，功耗35~40W，频率在2.3~2.5GHz。显卡最高66℃，功耗50W，频率1710MHz。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1217,7 +1214,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1400,6 +1397,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1720,10 +1720,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="M23" sqref="M23"/>
+      <selection pane="bottomLeft" activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1787,7 +1787,7 @@
         <v>26</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>23</v>
@@ -1802,7 +1802,7 @@
         <v>40</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S1" s="11" t="s">
         <v>14</v>
@@ -1810,44 +1810,44 @@
     </row>
     <row r="2" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B2" s="37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C2">
         <v>300</v>
       </c>
       <c r="F2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="J2" t="s">
         <v>168</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>170</v>
-      </c>
-      <c r="L2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B3" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C3">
         <v>700</v>
       </c>
       <c r="F3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="J3" t="s">
         <v>169</v>
-      </c>
-      <c r="J3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B4" s="37" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C4">
         <v>400</v>
@@ -1876,7 +1876,7 @@
         <v>19</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I5" s="30" t="s">
         <v>34</v>
@@ -1891,13 +1891,13 @@
         <v>27</v>
       </c>
       <c r="M5" s="30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N5" s="30" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O5" s="30" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P5" s="30">
         <v>46</v>
@@ -1906,15 +1906,15 @@
         <v>0.96</v>
       </c>
       <c r="R5" s="32" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="S5" s="33" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="19" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>50</v>
@@ -1947,7 +1947,7 @@
         <v>53</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N7" s="19">
         <v>3.4</v>
@@ -1960,13 +1960,13 @@
       </c>
       <c r="Q7" s="20"/>
       <c r="R7" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B8" s="21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C8" s="19">
         <v>5889</v>
@@ -1990,10 +1990,10 @@
         <v>39</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O8" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q8" s="20">
         <v>43678</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="9" spans="1:19" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B9" s="35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C9" s="16">
         <v>5679</v>
@@ -2036,13 +2036,13 @@
         <v>57</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N9" s="16">
         <v>2.7</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P9" s="16">
         <v>62</v>
@@ -2055,16 +2055,16 @@
     </row>
     <row r="10" spans="1:19" s="22" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="22">
         <v>6799</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E10" s="22">
         <v>16</v>
@@ -2085,32 +2085,32 @@
         <v>25</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L10" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M10" s="22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N10" s="22">
         <v>2</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P10" s="22">
         <v>46</v>
       </c>
       <c r="Q10" s="23"/>
       <c r="R10" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="S10" s="24"/>
     </row>
     <row r="11" spans="1:19" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B11" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C11" s="19">
         <v>6999</v>
@@ -2125,17 +2125,17 @@
         <v>12</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H11" s="21"/>
       <c r="J11" s="19" t="s">
         <v>39</v>
       </c>
       <c r="L11" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="M11" s="19" t="s">
         <v>109</v>
-      </c>
-      <c r="M11" s="19" t="s">
-        <v>111</v>
       </c>
       <c r="Q11" s="20"/>
       <c r="R11" s="21"/>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="12" spans="1:19" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>58</v>
@@ -2152,7 +2152,7 @@
         <v>5999</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E12" s="16">
         <v>16</v>
@@ -2179,7 +2179,7 @@
         <v>53</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N12" s="16">
         <v>2</v>
@@ -2197,10 +2197,10 @@
     </row>
     <row r="13" spans="1:19" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C13" s="27">
         <v>6799</v>
@@ -2218,20 +2218,20 @@
         <v>37</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L13" s="27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N13" s="27">
         <v>4</v>
       </c>
       <c r="Q13" s="28"/>
       <c r="R13" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S13" s="29"/>
     </row>
@@ -2247,7 +2247,7 @@
         <v>43</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C16" s="16">
         <v>6059</v>
@@ -2280,7 +2280,7 @@
         <v>48</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N16" s="16">
         <v>1.82</v>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="Q16" s="17"/>
       <c r="R16" s="18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="S16" s="26" t="s">
         <v>70</v>
@@ -2319,7 +2319,7 @@
         <v>62</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" s="16">
         <v>5525</v>
@@ -2337,7 +2337,7 @@
         <v>20</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J19" s="16" t="s">
         <v>67</v>
@@ -2352,16 +2352,16 @@
         <v>2.7</v>
       </c>
       <c r="O19" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P19" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q19" s="17">
         <v>43588</v>
       </c>
       <c r="R19" s="18" t="s">
-        <v>98</v>
+        <v>211</v>
       </c>
       <c r="S19" s="26" t="s">
         <v>71</v>
@@ -2383,10 +2383,10 @@
     </row>
     <row r="22" spans="1:20" s="16" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C22" s="16">
         <v>5699</v>
@@ -2404,7 +2404,7 @@
         <v>20</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J22" s="16" t="s">
         <v>68</v>
@@ -2413,13 +2413,13 @@
         <v>69</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N22" s="16">
         <v>2.2999999999999998</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P22" s="16">
         <v>52</v>
@@ -2428,16 +2428,16 @@
         <v>43588</v>
       </c>
       <c r="R22" s="18" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="S22" s="43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:20" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="36" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C23" s="2">
         <v>6099</v>
@@ -2449,13 +2449,13 @@
     </row>
     <row r="24" spans="1:20" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B24" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C24" s="16">
         <v>6999</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E24" s="16">
         <v>8</v>
@@ -2483,7 +2483,7 @@
       </c>
       <c r="Q24" s="17"/>
       <c r="R24" s="18" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="S24" s="18"/>
     </row>
@@ -2509,10 +2509,10 @@
     </row>
     <row r="27" spans="1:20" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>89</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>90</v>
       </c>
       <c r="C27" s="16">
         <v>6099</v>
@@ -2530,26 +2530,26 @@
         <v>20</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J27" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K27" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N27" s="16">
         <v>2.2999999999999998</v>
       </c>
       <c r="O27" s="16" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="P27" s="16">
         <v>53</v>
       </c>
       <c r="Q27" s="17"/>
       <c r="R27" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S27" s="18"/>
     </row>
@@ -2595,7 +2595,7 @@
       <c r="Q31" s="3"/>
       <c r="R31" s="7"/>
       <c r="S31" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="19" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
@@ -2603,10 +2603,10 @@
         <v>10</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>11</v>
@@ -2627,7 +2627,7 @@
         <v>33</v>
       </c>
       <c r="J32" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L32" s="19" t="s">
         <v>30</v>
@@ -2636,14 +2636,14 @@
         <v>28</v>
       </c>
       <c r="O32" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P32" s="19">
         <v>47</v>
       </c>
       <c r="Q32" s="20"/>
       <c r="R32" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="S32" s="39" t="s">
         <v>15</v>
@@ -2652,7 +2652,7 @@
     </row>
     <row r="33" spans="1:19" s="19" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B33" s="21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C33" s="19">
         <v>6099</v>
@@ -2670,7 +2670,7 @@
         <v>37</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J33" s="19" t="s">
         <v>39</v>
@@ -2679,19 +2679,19 @@
         <v>41</v>
       </c>
       <c r="M33" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N33" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O33" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q33" s="20">
         <v>43647</v>
       </c>
       <c r="R33" s="58" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="S33" s="21"/>
     </row>
@@ -2712,12 +2712,12 @@
       <c r="R35" s="7"/>
       <c r="S35" s="7"/>
     </row>
-    <row r="36" spans="1:19" s="47" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" s="47" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="47" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B36" s="60" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C36" s="47">
         <v>6699</v>
@@ -2735,10 +2735,10 @@
         <v>20</v>
       </c>
       <c r="H36" s="50" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I36" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J36" s="47">
         <v>17.3</v>
@@ -2747,23 +2747,23 @@
         <v>25</v>
       </c>
       <c r="L36" s="47" t="s">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="N36" s="47">
         <v>2.75</v>
       </c>
       <c r="O36" s="47" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P36" s="47">
         <v>52.5</v>
       </c>
       <c r="Q36" s="49"/>
       <c r="R36" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="S36" s="50" t="s">
-        <v>208</v>
+        <v>213</v>
+      </c>
+      <c r="S36" s="61" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:19" s="47" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -2788,10 +2788,10 @@
     </row>
     <row r="39" spans="1:19" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C39" s="27">
         <v>6499</v>
@@ -2812,11 +2812,11 @@
         <v>38</v>
       </c>
       <c r="J39" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q39" s="28"/>
       <c r="R39" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S39" s="29"/>
     </row>
@@ -2829,10 +2829,10 @@
     </row>
     <row r="41" spans="1:19" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C41" s="13">
         <v>7099</v>
@@ -2844,41 +2844,41 @@
         <v>8</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G41" s="38" t="s">
         <v>37</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J41" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="K41" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="K41" s="13" t="s">
-        <v>176</v>
-      </c>
       <c r="L41" s="13" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M41" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N41" s="13">
         <v>2.5</v>
       </c>
       <c r="O41" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P41" s="13">
         <v>47</v>
       </c>
       <c r="Q41" s="14"/>
       <c r="R41" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="S41" s="15"/>
     </row>
@@ -2892,13 +2892,13 @@
     </row>
     <row r="43" spans="1:19" s="27" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D43" s="27" t="s">
         <v>46</v>
@@ -2907,31 +2907,31 @@
         <v>43693</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G43" s="27" t="s">
         <v>37</v>
       </c>
       <c r="H43" s="29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J43" s="27">
         <v>17.3</v>
       </c>
       <c r="K43" s="27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L43" s="27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M43" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N43" s="27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O43" s="27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P43" s="27">
         <v>43</v>
@@ -2940,13 +2940,13 @@
         <v>43586</v>
       </c>
       <c r="R43" s="29" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="S43" s="29"/>
     </row>
     <row r="44" spans="1:19" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C44" s="13">
         <v>8199</v>
@@ -2958,10 +2958,10 @@
         <v>12</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J44" s="13">
         <v>17.3</v>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="45" spans="1:19" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C45" s="13">
         <v>8299</v>
@@ -2987,7 +2987,7 @@
         <v>37</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J45" s="13">
         <v>17.3</v>
@@ -3005,16 +3005,16 @@
     </row>
     <row r="47" spans="1:19" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C47" s="27">
         <v>6359</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E47" s="27">
         <v>8</v>
@@ -3026,23 +3026,23 @@
         <v>20</v>
       </c>
       <c r="H47" s="29" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I47" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J47" s="27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L47" s="27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N47" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q47" s="28"/>
       <c r="R47" s="29" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="S47" s="29"/>
     </row>
@@ -3062,10 +3062,10 @@
     </row>
     <row r="50" spans="1:19" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C50" s="16">
         <v>6299</v>
@@ -3077,7 +3077,7 @@
         <v>8</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G50" s="16" t="s">
         <v>20</v>
@@ -3086,19 +3086,19 @@
         <v>38</v>
       </c>
       <c r="I50" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J50" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="N50" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="O50" s="16" t="s">
         <v>131</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="N50" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="O50" s="16" t="s">
-        <v>133</v>
       </c>
       <c r="Q50" s="17"/>
       <c r="R50" s="18"/>
@@ -3106,7 +3106,7 @@
     </row>
     <row r="51" spans="1:19" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B51" s="52" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C51" s="16">
         <v>6699</v>
@@ -3124,16 +3124,16 @@
         <v>20</v>
       </c>
       <c r="H51" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="J51" s="16" t="s">
         <v>152</v>
-      </c>
-      <c r="J51" s="16" t="s">
-        <v>154</v>
       </c>
       <c r="K51" s="16">
         <v>19</v>
       </c>
       <c r="L51" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N51" s="16">
         <v>2</v>
@@ -3516,8 +3516,9 @@
     <hyperlink ref="S22" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="S5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="S31" r:id="rId5" xr:uid="{AA294D9E-5401-48AB-B8F7-EE6A5D8F36A4}"/>
+    <hyperlink ref="S36" r:id="rId6" display="http://tieba.baidu.com/p/6148468574" xr:uid="{8B41E1C7-2688-402C-A77B-C341FFDB339E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/note/笔记本.xlsx
+++ b/note/笔记本.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\react\dva\note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7870B3A0-3E0E-4A91-9EC7-437DC664290F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C6459D-0E58-4A53-B3E2-E4F76A889A15}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="1560" windowWidth="28530" windowHeight="7515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2160" windowWidth="28530" windowHeight="7515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="220">
   <si>
     <t>品牌</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -957,6 +957,30 @@
   </si>
   <si>
     <t>USB2个，1个typeC。3芯。2.7G降频。CPU最高90℃，之后在80℃波动，功耗35~40W，频率在2.3~2.5GHz。显卡最高66℃，功耗50W，频率1710MHz。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aspire 威武骑士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC金属</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shdr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬盘位  双M.2+SATA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻刃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20*364*260</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1720,10 +1744,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="R36" sqref="R36"/>
+      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2367,16 +2391,45 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B20" s="18"/>
-      <c r="H20" s="18"/>
+    <row r="20" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" s="16">
+        <v>5899</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="K20" s="16">
+        <v>21</v>
+      </c>
+      <c r="N20" s="16">
+        <v>2.35</v>
+      </c>
+      <c r="P20" s="16">
+        <v>48</v>
+      </c>
       <c r="Q20" s="17"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
+      <c r="R20" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="S20" s="43"/>
     </row>
     <row r="21" spans="1:20" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B21" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>218</v>
+      </c>
       <c r="H21" s="7"/>
+      <c r="K21" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="N21" s="2">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="Q21" s="3"/>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
